--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9652620335237919</v>
+        <v>0.9652620335237917</v>
       </c>
       <c r="D2">
-        <v>0.9907591115568748</v>
+        <v>0.9907591115568747</v>
       </c>
       <c r="E2">
-        <v>0.9695536223755493</v>
+        <v>0.9695536223755489</v>
       </c>
       <c r="F2">
-        <v>0.9194999749684977</v>
+        <v>0.919499974968498</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.031830535001234</v>
       </c>
       <c r="J2">
-        <v>0.9885338296416954</v>
+        <v>0.988533829641695</v>
       </c>
       <c r="K2">
         <v>1.002348705775884</v>
       </c>
       <c r="L2">
-        <v>0.9814540765272649</v>
+        <v>0.9814540765272646</v>
       </c>
       <c r="M2">
-        <v>0.9322076997580614</v>
+        <v>0.9322076997580613</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9766785989364462</v>
+        <v>0.9766785989364443</v>
       </c>
       <c r="D3">
-        <v>0.9995789178086226</v>
+        <v>0.9995789178086206</v>
       </c>
       <c r="E3">
-        <v>0.9802230777165537</v>
+        <v>0.9802230777165519</v>
       </c>
       <c r="F3">
-        <v>0.9368853353948685</v>
+        <v>0.9368853353948667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035796226530552</v>
+        <v>1.03579622653055</v>
       </c>
       <c r="J3">
-        <v>0.9978258699023863</v>
+        <v>0.9978258699023843</v>
       </c>
       <c r="K3">
-        <v>1.010217189296764</v>
+        <v>1.010217189296763</v>
       </c>
       <c r="L3">
-        <v>0.9911154223644676</v>
+        <v>0.9911154223644659</v>
       </c>
       <c r="M3">
-        <v>0.9483949842767379</v>
+        <v>0.9483949842767363</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9836824227378459</v>
+        <v>0.9836824227378451</v>
       </c>
       <c r="D4">
         <v>1.004992425695337</v>
       </c>
       <c r="E4">
-        <v>0.9867591385805092</v>
+        <v>0.9867591385805086</v>
       </c>
       <c r="F4">
-        <v>0.9474695004938027</v>
+        <v>0.9474695004938025</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.038208134984436</v>
       </c>
       <c r="J4">
-        <v>1.003512948955351</v>
+        <v>1.00351294895535</v>
       </c>
       <c r="K4">
-        <v>1.015030967675566</v>
+        <v>1.015030967675565</v>
       </c>
       <c r="L4">
-        <v>0.997020040474082</v>
+        <v>0.9970200404740814</v>
       </c>
       <c r="M4">
-        <v>0.9582461853825636</v>
+        <v>0.9582461853825635</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9865442448095996</v>
+        <v>0.9865442448096005</v>
       </c>
       <c r="D5">
-        <v>1.007204847089003</v>
+        <v>1.007204847089004</v>
       </c>
       <c r="E5">
-        <v>0.9894278056171584</v>
+        <v>0.989427805617159</v>
       </c>
       <c r="F5">
-        <v>0.9517782493633973</v>
+        <v>0.9517782493633977</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.039188563469566</v>
       </c>
       <c r="J5">
-        <v>1.005833592008161</v>
+        <v>1.005833592008162</v>
       </c>
       <c r="K5">
         <v>1.016994648133871</v>
       </c>
       <c r="L5">
-        <v>0.9994276740606794</v>
+        <v>0.9994276740606802</v>
       </c>
       <c r="M5">
-        <v>0.9622555025207262</v>
+        <v>0.9622555025207267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9870201529983046</v>
+        <v>0.9870201529983055</v>
       </c>
       <c r="D6">
-        <v>1.007572780832112</v>
+        <v>1.007572780832113</v>
       </c>
       <c r="E6">
-        <v>0.9898714798367962</v>
+        <v>0.9898714798367971</v>
       </c>
       <c r="F6">
-        <v>0.9524939199125054</v>
+        <v>0.9524939199125061</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.03935130222867</v>
       </c>
       <c r="J6">
-        <v>1.006219320909579</v>
+        <v>1.00621932090958</v>
       </c>
       <c r="K6">
-        <v>1.017321005026745</v>
+        <v>1.017321005026746</v>
       </c>
       <c r="L6">
-        <v>0.9998277642282752</v>
+        <v>0.9998277642282762</v>
       </c>
       <c r="M6">
-        <v>0.9629213719778356</v>
+        <v>0.9629213719778363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>1.005022229192423</v>
       </c>
       <c r="E7">
-        <v>0.9867950975540329</v>
+        <v>0.9867950975540328</v>
       </c>
       <c r="F7">
-        <v>0.9475276058306752</v>
+        <v>0.9475276058306749</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.015057434673083</v>
       </c>
       <c r="L7">
-        <v>0.9970524948035396</v>
+        <v>0.9970524948035395</v>
       </c>
       <c r="M7">
-        <v>0.9583002571398808</v>
+        <v>0.9583002571398804</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9692058107190196</v>
+        <v>0.9692058107190202</v>
       </c>
       <c r="D8">
-        <v>0.9938051060923604</v>
+        <v>0.9938051060923608</v>
       </c>
       <c r="E8">
-        <v>0.9732415056839578</v>
+        <v>0.9732415056839585</v>
       </c>
       <c r="F8">
-        <v>0.9255255325720704</v>
+        <v>0.9255255325720712</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.033204907693474</v>
       </c>
       <c r="J8">
-        <v>0.9917466255806643</v>
+        <v>0.9917466255806648</v>
       </c>
       <c r="K8">
         <v>1.005069650228462</v>
       </c>
       <c r="L8">
-        <v>0.9847965662812965</v>
+        <v>0.9847965662812973</v>
       </c>
       <c r="M8">
-        <v>0.9378186565724695</v>
+        <v>0.9378186565724702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9401615334213764</v>
+        <v>0.9401615334213785</v>
       </c>
       <c r="D9">
-        <v>0.971397852474628</v>
+        <v>0.9713978524746301</v>
       </c>
       <c r="E9">
-        <v>0.9460238426226278</v>
+        <v>0.9460238426226303</v>
       </c>
       <c r="F9">
-        <v>0.8805668099601081</v>
+        <v>0.8805668099601109</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022990888833494</v>
+        <v>1.022990888833496</v>
       </c>
       <c r="J9">
-        <v>0.9680199320817149</v>
+        <v>0.968019932081717</v>
       </c>
       <c r="K9">
-        <v>0.9849726761538597</v>
+        <v>0.9849726761538617</v>
       </c>
       <c r="L9">
-        <v>0.9600578775037393</v>
+        <v>0.9600578775037416</v>
       </c>
       <c r="M9">
-        <v>0.8959486666857507</v>
+        <v>0.8959486666857536</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9174393152837927</v>
+        <v>0.9174393152837936</v>
       </c>
       <c r="D10">
-        <v>0.9539204998311499</v>
+        <v>0.9539204998311503</v>
       </c>
       <c r="E10">
-        <v>0.9246244067909277</v>
+        <v>0.9246244067909285</v>
       </c>
       <c r="F10">
-        <v>0.8442236134640286</v>
+        <v>0.8442236134640301</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.014881274776758</v>
       </c>
       <c r="J10">
-        <v>0.9493600050391547</v>
+        <v>0.9493600050391556</v>
       </c>
       <c r="K10">
-        <v>0.9691747459713457</v>
+        <v>0.9691747459713465</v>
       </c>
       <c r="L10">
-        <v>0.9405024047827933</v>
+        <v>0.9405024047827943</v>
       </c>
       <c r="M10">
-        <v>0.862118830046153</v>
+        <v>0.8621188300461542</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.906430571461231</v>
+        <v>0.9064305714612302</v>
       </c>
       <c r="D11">
-        <v>0.9454735023311276</v>
+        <v>0.9454735023311271</v>
       </c>
       <c r="E11">
-        <v>0.9142152394774206</v>
+        <v>0.9142152394774197</v>
       </c>
       <c r="F11">
-        <v>0.826128105210194</v>
+        <v>0.826128105210193</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010924713644711</v>
+        <v>1.01092471364471</v>
       </c>
       <c r="J11">
-        <v>0.9402898177380998</v>
+        <v>0.9402898177380995</v>
       </c>
       <c r="K11">
-        <v>0.9615025663010387</v>
+        <v>0.9615025663010381</v>
       </c>
       <c r="L11">
-        <v>0.9309590379498968</v>
+        <v>0.9309590379498961</v>
       </c>
       <c r="M11">
-        <v>0.8452907697177623</v>
+        <v>0.8452907697177612</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9021145406864246</v>
+        <v>0.9021145406864248</v>
       </c>
       <c r="D12">
-        <v>0.9421658361750833</v>
+        <v>0.9421658361750832</v>
       </c>
       <c r="E12">
-        <v>0.9101256910317341</v>
+        <v>0.9101256910317338</v>
       </c>
       <c r="F12">
-        <v>0.8189302717581548</v>
+        <v>0.818930271758154</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.9367283905144598</v>
       </c>
       <c r="K12">
-        <v>0.9584917652134549</v>
+        <v>0.958491765213455</v>
       </c>
       <c r="L12">
-        <v>0.927204152593831</v>
+        <v>0.9272041525938306</v>
       </c>
       <c r="M12">
-        <v>0.8386012599330902</v>
+        <v>0.8386012599330894</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9030517180111488</v>
+        <v>0.9030517180111471</v>
       </c>
       <c r="D13">
-        <v>0.9428838608886698</v>
+        <v>0.9428838608886682</v>
       </c>
       <c r="E13">
-        <v>0.9110141286382489</v>
+        <v>0.9110141286382475</v>
       </c>
       <c r="F13">
-        <v>0.8204985035032974</v>
+        <v>0.8204985035032952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009707336931181</v>
+        <v>1.00970733693118</v>
       </c>
       <c r="J13">
-        <v>0.9375019794483954</v>
+        <v>0.9375019794483939</v>
       </c>
       <c r="K13">
-        <v>0.9591456609939703</v>
+        <v>0.9591456609939687</v>
       </c>
       <c r="L13">
-        <v>0.9280201495986723</v>
+        <v>0.9280201495986707</v>
       </c>
       <c r="M13">
-        <v>0.8400585150643328</v>
+        <v>0.8400585150643308</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9060788232939737</v>
+        <v>0.9060788232939727</v>
       </c>
       <c r="D14">
-        <v>0.9452038473553926</v>
+        <v>0.9452038473553919</v>
       </c>
       <c r="E14">
-        <v>0.9138821395100479</v>
+        <v>0.9138821395100468</v>
       </c>
       <c r="F14">
-        <v>0.8255437966248415</v>
+        <v>0.8255437966248405</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010798043855852</v>
+        <v>1.010798043855851</v>
       </c>
       <c r="J14">
-        <v>0.9399996844534799</v>
+        <v>0.9399996844534791</v>
       </c>
       <c r="K14">
-        <v>0.9612572512654268</v>
+        <v>0.9612572512654263</v>
       </c>
       <c r="L14">
-        <v>0.9306533127054908</v>
+        <v>0.9306533127054899</v>
       </c>
       <c r="M14">
-        <v>0.8447476295649798</v>
+        <v>0.844747629564979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9079119003862999</v>
+        <v>0.9079119003862992</v>
       </c>
       <c r="D15">
-        <v>0.946609276293397</v>
+        <v>0.9466092762933964</v>
       </c>
       <c r="E15">
-        <v>0.9156176737866354</v>
+        <v>0.9156176737866346</v>
       </c>
       <c r="F15">
-        <v>0.8285844686579832</v>
+        <v>0.8285844686579823</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.011457999331707</v>
       </c>
       <c r="J15">
-        <v>0.9415114419008015</v>
+        <v>0.9415114419008008</v>
       </c>
       <c r="K15">
-        <v>0.9625355528838824</v>
+        <v>0.9625355528838819</v>
       </c>
       <c r="L15">
-        <v>0.9322459925194466</v>
+        <v>0.9322459925194458</v>
       </c>
       <c r="M15">
-        <v>0.8475742444970351</v>
+        <v>0.8475742444970341</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9181414409640565</v>
+        <v>0.9181414409640549</v>
       </c>
       <c r="D16">
-        <v>0.954459723623438</v>
+        <v>0.9544597236234369</v>
       </c>
       <c r="E16">
-        <v>0.9252872974491044</v>
+        <v>0.9252872974491032</v>
       </c>
       <c r="F16">
-        <v>0.8453658222516901</v>
+        <v>0.8453658222516881</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.015133073814882</v>
       </c>
       <c r="J16">
-        <v>0.949937831302863</v>
+        <v>0.9499378313028616</v>
       </c>
       <c r="K16">
-        <v>0.9696636961478209</v>
+        <v>0.9696636961478196</v>
       </c>
       <c r="L16">
-        <v>0.9411094769094417</v>
+        <v>0.9411094769094406</v>
       </c>
       <c r="M16">
-        <v>0.863181476471651</v>
+        <v>0.8631814764716489</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9242156146845613</v>
+        <v>0.9242156146845639</v>
       </c>
       <c r="D17">
-        <v>0.9591269342059592</v>
+        <v>0.9591269342059613</v>
       </c>
       <c r="E17">
-        <v>0.9310174187862529</v>
+        <v>0.9310174187862557</v>
       </c>
       <c r="F17">
-        <v>0.8551924032990768</v>
+        <v>0.8551924032990794</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017308445334766</v>
+        <v>1.017308445334767</v>
       </c>
       <c r="J17">
-        <v>0.9549334110340372</v>
+        <v>0.9549334110340397</v>
       </c>
       <c r="K17">
-        <v>0.9738916914012351</v>
+        <v>0.9738916914012373</v>
       </c>
       <c r="L17">
-        <v>0.9463536687205111</v>
+        <v>0.9463536687205136</v>
       </c>
       <c r="M17">
-        <v>0.8723253948318177</v>
+        <v>0.8723253948318201</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.92765003114707</v>
+        <v>0.9276500311470673</v>
       </c>
       <c r="D18">
-        <v>0.9617676272928322</v>
+        <v>0.9617676272928298</v>
       </c>
       <c r="E18">
-        <v>0.9342537758910884</v>
+        <v>0.934253775891086</v>
       </c>
       <c r="F18">
-        <v>0.8607069821955013</v>
+        <v>0.860706982195499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018535951814094</v>
+        <v>1.018535951814092</v>
       </c>
       <c r="J18">
-        <v>0.9577553922509356</v>
+        <v>0.9577553922509331</v>
       </c>
       <c r="K18">
-        <v>0.9762806326349995</v>
+        <v>0.9762806326349976</v>
       </c>
       <c r="L18">
-        <v>0.949312841946324</v>
+        <v>0.9493128419463218</v>
       </c>
       <c r="M18">
-        <v>0.8774581526278501</v>
+        <v>0.8774581526278475</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9288038662724402</v>
+        <v>0.9288038662724418</v>
       </c>
       <c r="D19">
-        <v>0.9626550828812591</v>
+        <v>0.9626550828812607</v>
       </c>
       <c r="E19">
-        <v>0.935340521120691</v>
+        <v>0.9353405211206922</v>
       </c>
       <c r="F19">
-        <v>0.8625532669729962</v>
+        <v>0.8625532669729978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018947925432999</v>
+        <v>1.018947925433</v>
       </c>
       <c r="J19">
-        <v>0.9587030530905823</v>
+        <v>0.958703053090584</v>
       </c>
       <c r="K19">
-        <v>0.9770829536213673</v>
+        <v>0.977082953621369</v>
       </c>
       <c r="L19">
-        <v>0.9503060648285656</v>
+        <v>0.9503060648285671</v>
       </c>
       <c r="M19">
-        <v>0.8791767845741252</v>
+        <v>0.8791767845741266</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,31 +1108,31 @@
         <v>0.923575437328782</v>
       </c>
       <c r="D20">
-        <v>0.9586348483504455</v>
+        <v>0.9586348483504454</v>
       </c>
       <c r="E20">
-        <v>0.9304138838674703</v>
+        <v>0.9304138838674701</v>
       </c>
       <c r="F20">
-        <v>0.8541612499391139</v>
+        <v>0.8541612499391141</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017079434369065</v>
+        <v>1.017079434369064</v>
       </c>
       <c r="J20">
-        <v>0.9544071856757003</v>
+        <v>0.9544071856757004</v>
       </c>
       <c r="K20">
-        <v>0.9734462591310729</v>
+        <v>0.9734462591310726</v>
       </c>
       <c r="L20">
         <v>0.9458016056294012</v>
       </c>
       <c r="M20">
-        <v>0.8713657329565995</v>
+        <v>0.8713657329565999</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,28 +1146,28 @@
         <v>0.9051942187845474</v>
       </c>
       <c r="D21">
-        <v>0.9445257649299453</v>
+        <v>0.9445257649299457</v>
       </c>
       <c r="E21">
-        <v>0.9130442858453058</v>
+        <v>0.9130442858453056</v>
       </c>
       <c r="F21">
-        <v>0.8240725531076971</v>
+        <v>0.8240725531076972</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010479419634036</v>
+        <v>1.010479419634037</v>
       </c>
       <c r="J21">
         <v>0.9392699433974216</v>
       </c>
       <c r="K21">
-        <v>0.9606402664841912</v>
+        <v>0.9606402664841915</v>
       </c>
       <c r="L21">
-        <v>0.9298842244503408</v>
+        <v>0.9298842244503406</v>
       </c>
       <c r="M21">
         <v>0.843380118730113</v>
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8922760993496066</v>
+        <v>0.8922760993496048</v>
       </c>
       <c r="D22">
-        <v>0.9346348103306168</v>
+        <v>0.934634810330615</v>
       </c>
       <c r="E22">
-        <v>0.9007831940381109</v>
+        <v>0.9007831940381091</v>
       </c>
       <c r="F22">
-        <v>0.8022763303486717</v>
+        <v>0.8022763303486691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005816516909718</v>
+        <v>1.005816516909716</v>
       </c>
       <c r="J22">
-        <v>0.9285981310625516</v>
+        <v>0.9285981310625496</v>
       </c>
       <c r="K22">
-        <v>0.9516227650149083</v>
+        <v>0.9516227650149065</v>
       </c>
       <c r="L22">
-        <v>0.9186145104941774</v>
+        <v>0.9186145104941758</v>
       </c>
       <c r="M22">
-        <v>0.823134399393235</v>
+        <v>0.8231343993932324</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8992781771689631</v>
+        <v>0.8992781771689615</v>
       </c>
       <c r="D23">
-        <v>0.939993412969777</v>
+        <v>0.9399934129697752</v>
       </c>
       <c r="E23">
-        <v>0.9074353052739936</v>
+        <v>0.9074353052739917</v>
       </c>
       <c r="F23">
-        <v>0.8141654510305767</v>
+        <v>0.814165451030575</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008346218470646</v>
+        <v>1.008346218470645</v>
       </c>
       <c r="J23">
-        <v>0.9343862170778612</v>
+        <v>0.9343862170778594</v>
       </c>
       <c r="K23">
-        <v>0.9565123022836722</v>
+        <v>0.9565123022836702</v>
       </c>
       <c r="L23">
-        <v>0.9247322389090633</v>
+        <v>0.9247322389090616</v>
       </c>
       <c r="M23">
-        <v>0.8341744342467504</v>
+        <v>0.8341744342467485</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9238650378449328</v>
+        <v>0.9238650378449305</v>
       </c>
       <c r="D24">
-        <v>0.958857450361827</v>
+        <v>0.9588574503618251</v>
       </c>
       <c r="E24">
-        <v>0.9306869191381489</v>
+        <v>0.9306869191381469</v>
       </c>
       <c r="F24">
-        <v>0.8546278463882293</v>
+        <v>0.8546278463882264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017183041064443</v>
+        <v>1.017183041064442</v>
       </c>
       <c r="J24">
-        <v>0.9546452451355928</v>
+        <v>0.9546452451355907</v>
       </c>
       <c r="K24">
-        <v>0.9736477668225817</v>
+        <v>0.9736477668225798</v>
       </c>
       <c r="L24">
-        <v>0.9460513638842964</v>
+        <v>0.9460513638842943</v>
       </c>
       <c r="M24">
-        <v>0.8717999756233118</v>
+        <v>0.8717999756233089</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.948168255972677</v>
+        <v>0.9481682559726792</v>
       </c>
       <c r="D25">
-        <v>0.9775684360604072</v>
+        <v>0.977568436060409</v>
       </c>
       <c r="E25">
-        <v>0.953540918609019</v>
+        <v>0.9535409186090215</v>
       </c>
       <c r="F25">
-        <v>0.8931060223058996</v>
+        <v>0.8931060223059024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025826233305262</v>
+        <v>1.025826233305263</v>
       </c>
       <c r="J25">
-        <v>0.9745753759105074</v>
+        <v>0.9745753759105097</v>
       </c>
       <c r="K25">
-        <v>0.9905252491706179</v>
+        <v>0.9905252491706198</v>
       </c>
       <c r="L25">
-        <v>0.9669059756902776</v>
+        <v>0.9669059756902799</v>
       </c>
       <c r="M25">
-        <v>0.9076263049126941</v>
+        <v>0.907626304912697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9652620335237917</v>
+        <v>0.9652620335237919</v>
       </c>
       <c r="D2">
-        <v>0.9907591115568747</v>
+        <v>0.9907591115568748</v>
       </c>
       <c r="E2">
-        <v>0.9695536223755489</v>
+        <v>0.9695536223755493</v>
       </c>
       <c r="F2">
-        <v>0.919499974968498</v>
+        <v>0.9194999749684977</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.031830535001234</v>
       </c>
       <c r="J2">
-        <v>0.988533829641695</v>
+        <v>0.9885338296416954</v>
       </c>
       <c r="K2">
         <v>1.002348705775884</v>
       </c>
       <c r="L2">
-        <v>0.9814540765272646</v>
+        <v>0.9814540765272649</v>
       </c>
       <c r="M2">
-        <v>0.9322076997580613</v>
+        <v>0.9322076997580614</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9766785989364443</v>
+        <v>0.9766785989364462</v>
       </c>
       <c r="D3">
-        <v>0.9995789178086206</v>
+        <v>0.9995789178086226</v>
       </c>
       <c r="E3">
-        <v>0.9802230777165519</v>
+        <v>0.9802230777165537</v>
       </c>
       <c r="F3">
-        <v>0.9368853353948667</v>
+        <v>0.9368853353948685</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03579622653055</v>
+        <v>1.035796226530552</v>
       </c>
       <c r="J3">
-        <v>0.9978258699023843</v>
+        <v>0.9978258699023863</v>
       </c>
       <c r="K3">
-        <v>1.010217189296763</v>
+        <v>1.010217189296764</v>
       </c>
       <c r="L3">
-        <v>0.9911154223644659</v>
+        <v>0.9911154223644676</v>
       </c>
       <c r="M3">
-        <v>0.9483949842767363</v>
+        <v>0.9483949842767379</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9836824227378451</v>
+        <v>0.9836824227378459</v>
       </c>
       <c r="D4">
         <v>1.004992425695337</v>
       </c>
       <c r="E4">
-        <v>0.9867591385805086</v>
+        <v>0.9867591385805092</v>
       </c>
       <c r="F4">
-        <v>0.9474695004938025</v>
+        <v>0.9474695004938027</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.038208134984436</v>
       </c>
       <c r="J4">
-        <v>1.00351294895535</v>
+        <v>1.003512948955351</v>
       </c>
       <c r="K4">
-        <v>1.015030967675565</v>
+        <v>1.015030967675566</v>
       </c>
       <c r="L4">
-        <v>0.9970200404740814</v>
+        <v>0.997020040474082</v>
       </c>
       <c r="M4">
-        <v>0.9582461853825635</v>
+        <v>0.9582461853825636</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9865442448096005</v>
+        <v>0.9865442448095996</v>
       </c>
       <c r="D5">
-        <v>1.007204847089004</v>
+        <v>1.007204847089003</v>
       </c>
       <c r="E5">
-        <v>0.989427805617159</v>
+        <v>0.9894278056171584</v>
       </c>
       <c r="F5">
-        <v>0.9517782493633977</v>
+        <v>0.9517782493633973</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.039188563469566</v>
       </c>
       <c r="J5">
-        <v>1.005833592008162</v>
+        <v>1.005833592008161</v>
       </c>
       <c r="K5">
         <v>1.016994648133871</v>
       </c>
       <c r="L5">
-        <v>0.9994276740606802</v>
+        <v>0.9994276740606794</v>
       </c>
       <c r="M5">
-        <v>0.9622555025207267</v>
+        <v>0.9622555025207262</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9870201529983055</v>
+        <v>0.9870201529983046</v>
       </c>
       <c r="D6">
-        <v>1.007572780832113</v>
+        <v>1.007572780832112</v>
       </c>
       <c r="E6">
-        <v>0.9898714798367971</v>
+        <v>0.9898714798367962</v>
       </c>
       <c r="F6">
-        <v>0.9524939199125061</v>
+        <v>0.9524939199125054</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.03935130222867</v>
       </c>
       <c r="J6">
-        <v>1.00621932090958</v>
+        <v>1.006219320909579</v>
       </c>
       <c r="K6">
-        <v>1.017321005026746</v>
+        <v>1.017321005026745</v>
       </c>
       <c r="L6">
-        <v>0.9998277642282762</v>
+        <v>0.9998277642282752</v>
       </c>
       <c r="M6">
-        <v>0.9629213719778363</v>
+        <v>0.9629213719778356</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>1.005022229192423</v>
       </c>
       <c r="E7">
-        <v>0.9867950975540328</v>
+        <v>0.9867950975540329</v>
       </c>
       <c r="F7">
-        <v>0.9475276058306749</v>
+        <v>0.9475276058306752</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.015057434673083</v>
       </c>
       <c r="L7">
-        <v>0.9970524948035395</v>
+        <v>0.9970524948035396</v>
       </c>
       <c r="M7">
-        <v>0.9583002571398804</v>
+        <v>0.9583002571398808</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9692058107190202</v>
+        <v>0.9692058107190196</v>
       </c>
       <c r="D8">
-        <v>0.9938051060923608</v>
+        <v>0.9938051060923604</v>
       </c>
       <c r="E8">
-        <v>0.9732415056839585</v>
+        <v>0.9732415056839578</v>
       </c>
       <c r="F8">
-        <v>0.9255255325720712</v>
+        <v>0.9255255325720704</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.033204907693474</v>
       </c>
       <c r="J8">
-        <v>0.9917466255806648</v>
+        <v>0.9917466255806643</v>
       </c>
       <c r="K8">
         <v>1.005069650228462</v>
       </c>
       <c r="L8">
-        <v>0.9847965662812973</v>
+        <v>0.9847965662812965</v>
       </c>
       <c r="M8">
-        <v>0.9378186565724702</v>
+        <v>0.9378186565724695</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9401615334213785</v>
+        <v>0.9401615334213764</v>
       </c>
       <c r="D9">
-        <v>0.9713978524746301</v>
+        <v>0.971397852474628</v>
       </c>
       <c r="E9">
-        <v>0.9460238426226303</v>
+        <v>0.9460238426226278</v>
       </c>
       <c r="F9">
-        <v>0.8805668099601109</v>
+        <v>0.8805668099601081</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022990888833496</v>
+        <v>1.022990888833494</v>
       </c>
       <c r="J9">
-        <v>0.968019932081717</v>
+        <v>0.9680199320817149</v>
       </c>
       <c r="K9">
-        <v>0.9849726761538617</v>
+        <v>0.9849726761538597</v>
       </c>
       <c r="L9">
-        <v>0.9600578775037416</v>
+        <v>0.9600578775037393</v>
       </c>
       <c r="M9">
-        <v>0.8959486666857536</v>
+        <v>0.8959486666857507</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9174393152837936</v>
+        <v>0.9174393152837927</v>
       </c>
       <c r="D10">
-        <v>0.9539204998311503</v>
+        <v>0.9539204998311499</v>
       </c>
       <c r="E10">
-        <v>0.9246244067909285</v>
+        <v>0.9246244067909277</v>
       </c>
       <c r="F10">
-        <v>0.8442236134640301</v>
+        <v>0.8442236134640286</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.014881274776758</v>
       </c>
       <c r="J10">
-        <v>0.9493600050391556</v>
+        <v>0.9493600050391547</v>
       </c>
       <c r="K10">
-        <v>0.9691747459713465</v>
+        <v>0.9691747459713457</v>
       </c>
       <c r="L10">
-        <v>0.9405024047827943</v>
+        <v>0.9405024047827933</v>
       </c>
       <c r="M10">
-        <v>0.8621188300461542</v>
+        <v>0.862118830046153</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9064305714612302</v>
+        <v>0.906430571461231</v>
       </c>
       <c r="D11">
-        <v>0.9454735023311271</v>
+        <v>0.9454735023311276</v>
       </c>
       <c r="E11">
-        <v>0.9142152394774197</v>
+        <v>0.9142152394774206</v>
       </c>
       <c r="F11">
-        <v>0.826128105210193</v>
+        <v>0.826128105210194</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01092471364471</v>
+        <v>1.010924713644711</v>
       </c>
       <c r="J11">
-        <v>0.9402898177380995</v>
+        <v>0.9402898177380998</v>
       </c>
       <c r="K11">
-        <v>0.9615025663010381</v>
+        <v>0.9615025663010387</v>
       </c>
       <c r="L11">
-        <v>0.9309590379498961</v>
+        <v>0.9309590379498968</v>
       </c>
       <c r="M11">
-        <v>0.8452907697177612</v>
+        <v>0.8452907697177623</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9021145406864248</v>
+        <v>0.9021145406864246</v>
       </c>
       <c r="D12">
-        <v>0.9421658361750832</v>
+        <v>0.9421658361750833</v>
       </c>
       <c r="E12">
-        <v>0.9101256910317338</v>
+        <v>0.9101256910317341</v>
       </c>
       <c r="F12">
-        <v>0.818930271758154</v>
+        <v>0.8189302717581548</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.9367283905144598</v>
       </c>
       <c r="K12">
-        <v>0.958491765213455</v>
+        <v>0.9584917652134549</v>
       </c>
       <c r="L12">
-        <v>0.9272041525938306</v>
+        <v>0.927204152593831</v>
       </c>
       <c r="M12">
-        <v>0.8386012599330894</v>
+        <v>0.8386012599330902</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9030517180111471</v>
+        <v>0.9030517180111488</v>
       </c>
       <c r="D13">
-        <v>0.9428838608886682</v>
+        <v>0.9428838608886698</v>
       </c>
       <c r="E13">
-        <v>0.9110141286382475</v>
+        <v>0.9110141286382489</v>
       </c>
       <c r="F13">
-        <v>0.8204985035032952</v>
+        <v>0.8204985035032974</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.00970733693118</v>
+        <v>1.009707336931181</v>
       </c>
       <c r="J13">
-        <v>0.9375019794483939</v>
+        <v>0.9375019794483954</v>
       </c>
       <c r="K13">
-        <v>0.9591456609939687</v>
+        <v>0.9591456609939703</v>
       </c>
       <c r="L13">
-        <v>0.9280201495986707</v>
+        <v>0.9280201495986723</v>
       </c>
       <c r="M13">
-        <v>0.8400585150643308</v>
+        <v>0.8400585150643328</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9060788232939727</v>
+        <v>0.9060788232939737</v>
       </c>
       <c r="D14">
-        <v>0.9452038473553919</v>
+        <v>0.9452038473553926</v>
       </c>
       <c r="E14">
-        <v>0.9138821395100468</v>
+        <v>0.9138821395100479</v>
       </c>
       <c r="F14">
-        <v>0.8255437966248405</v>
+        <v>0.8255437966248415</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010798043855851</v>
+        <v>1.010798043855852</v>
       </c>
       <c r="J14">
-        <v>0.9399996844534791</v>
+        <v>0.9399996844534799</v>
       </c>
       <c r="K14">
-        <v>0.9612572512654263</v>
+        <v>0.9612572512654268</v>
       </c>
       <c r="L14">
-        <v>0.9306533127054899</v>
+        <v>0.9306533127054908</v>
       </c>
       <c r="M14">
-        <v>0.844747629564979</v>
+        <v>0.8447476295649798</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9079119003862992</v>
+        <v>0.9079119003862999</v>
       </c>
       <c r="D15">
-        <v>0.9466092762933964</v>
+        <v>0.946609276293397</v>
       </c>
       <c r="E15">
-        <v>0.9156176737866346</v>
+        <v>0.9156176737866354</v>
       </c>
       <c r="F15">
-        <v>0.8285844686579823</v>
+        <v>0.8285844686579832</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.011457999331707</v>
       </c>
       <c r="J15">
-        <v>0.9415114419008008</v>
+        <v>0.9415114419008015</v>
       </c>
       <c r="K15">
-        <v>0.9625355528838819</v>
+        <v>0.9625355528838824</v>
       </c>
       <c r="L15">
-        <v>0.9322459925194458</v>
+        <v>0.9322459925194466</v>
       </c>
       <c r="M15">
-        <v>0.8475742444970341</v>
+        <v>0.8475742444970351</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9181414409640549</v>
+        <v>0.9181414409640565</v>
       </c>
       <c r="D16">
-        <v>0.9544597236234369</v>
+        <v>0.954459723623438</v>
       </c>
       <c r="E16">
-        <v>0.9252872974491032</v>
+        <v>0.9252872974491044</v>
       </c>
       <c r="F16">
-        <v>0.8453658222516881</v>
+        <v>0.8453658222516901</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.015133073814882</v>
       </c>
       <c r="J16">
-        <v>0.9499378313028616</v>
+        <v>0.949937831302863</v>
       </c>
       <c r="K16">
-        <v>0.9696636961478196</v>
+        <v>0.9696636961478209</v>
       </c>
       <c r="L16">
-        <v>0.9411094769094406</v>
+        <v>0.9411094769094417</v>
       </c>
       <c r="M16">
-        <v>0.8631814764716489</v>
+        <v>0.863181476471651</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9242156146845639</v>
+        <v>0.9242156146845613</v>
       </c>
       <c r="D17">
-        <v>0.9591269342059613</v>
+        <v>0.9591269342059592</v>
       </c>
       <c r="E17">
-        <v>0.9310174187862557</v>
+        <v>0.9310174187862529</v>
       </c>
       <c r="F17">
-        <v>0.8551924032990794</v>
+        <v>0.8551924032990768</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017308445334767</v>
+        <v>1.017308445334766</v>
       </c>
       <c r="J17">
-        <v>0.9549334110340397</v>
+        <v>0.9549334110340372</v>
       </c>
       <c r="K17">
-        <v>0.9738916914012373</v>
+        <v>0.9738916914012351</v>
       </c>
       <c r="L17">
-        <v>0.9463536687205136</v>
+        <v>0.9463536687205111</v>
       </c>
       <c r="M17">
-        <v>0.8723253948318201</v>
+        <v>0.8723253948318177</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9276500311470673</v>
+        <v>0.92765003114707</v>
       </c>
       <c r="D18">
-        <v>0.9617676272928298</v>
+        <v>0.9617676272928322</v>
       </c>
       <c r="E18">
-        <v>0.934253775891086</v>
+        <v>0.9342537758910884</v>
       </c>
       <c r="F18">
-        <v>0.860706982195499</v>
+        <v>0.8607069821955013</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018535951814092</v>
+        <v>1.018535951814094</v>
       </c>
       <c r="J18">
-        <v>0.9577553922509331</v>
+        <v>0.9577553922509356</v>
       </c>
       <c r="K18">
-        <v>0.9762806326349976</v>
+        <v>0.9762806326349995</v>
       </c>
       <c r="L18">
-        <v>0.9493128419463218</v>
+        <v>0.949312841946324</v>
       </c>
       <c r="M18">
-        <v>0.8774581526278475</v>
+        <v>0.8774581526278501</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9288038662724418</v>
+        <v>0.9288038662724402</v>
       </c>
       <c r="D19">
-        <v>0.9626550828812607</v>
+        <v>0.9626550828812591</v>
       </c>
       <c r="E19">
-        <v>0.9353405211206922</v>
+        <v>0.935340521120691</v>
       </c>
       <c r="F19">
-        <v>0.8625532669729978</v>
+        <v>0.8625532669729962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018947925433</v>
+        <v>1.018947925432999</v>
       </c>
       <c r="J19">
-        <v>0.958703053090584</v>
+        <v>0.9587030530905823</v>
       </c>
       <c r="K19">
-        <v>0.977082953621369</v>
+        <v>0.9770829536213673</v>
       </c>
       <c r="L19">
-        <v>0.9503060648285671</v>
+        <v>0.9503060648285656</v>
       </c>
       <c r="M19">
-        <v>0.8791767845741266</v>
+        <v>0.8791767845741252</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,31 +1108,31 @@
         <v>0.923575437328782</v>
       </c>
       <c r="D20">
-        <v>0.9586348483504454</v>
+        <v>0.9586348483504455</v>
       </c>
       <c r="E20">
-        <v>0.9304138838674701</v>
+        <v>0.9304138838674703</v>
       </c>
       <c r="F20">
-        <v>0.8541612499391141</v>
+        <v>0.8541612499391139</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017079434369064</v>
+        <v>1.017079434369065</v>
       </c>
       <c r="J20">
-        <v>0.9544071856757004</v>
+        <v>0.9544071856757003</v>
       </c>
       <c r="K20">
-        <v>0.9734462591310726</v>
+        <v>0.9734462591310729</v>
       </c>
       <c r="L20">
         <v>0.9458016056294012</v>
       </c>
       <c r="M20">
-        <v>0.8713657329565999</v>
+        <v>0.8713657329565995</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,28 +1146,28 @@
         <v>0.9051942187845474</v>
       </c>
       <c r="D21">
-        <v>0.9445257649299457</v>
+        <v>0.9445257649299453</v>
       </c>
       <c r="E21">
-        <v>0.9130442858453056</v>
+        <v>0.9130442858453058</v>
       </c>
       <c r="F21">
-        <v>0.8240725531076972</v>
+        <v>0.8240725531076971</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010479419634037</v>
+        <v>1.010479419634036</v>
       </c>
       <c r="J21">
         <v>0.9392699433974216</v>
       </c>
       <c r="K21">
-        <v>0.9606402664841915</v>
+        <v>0.9606402664841912</v>
       </c>
       <c r="L21">
-        <v>0.9298842244503406</v>
+        <v>0.9298842244503408</v>
       </c>
       <c r="M21">
         <v>0.843380118730113</v>
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8922760993496048</v>
+        <v>0.8922760993496066</v>
       </c>
       <c r="D22">
-        <v>0.934634810330615</v>
+        <v>0.9346348103306168</v>
       </c>
       <c r="E22">
-        <v>0.9007831940381091</v>
+        <v>0.9007831940381109</v>
       </c>
       <c r="F22">
-        <v>0.8022763303486691</v>
+        <v>0.8022763303486717</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005816516909716</v>
+        <v>1.005816516909718</v>
       </c>
       <c r="J22">
-        <v>0.9285981310625496</v>
+        <v>0.9285981310625516</v>
       </c>
       <c r="K22">
-        <v>0.9516227650149065</v>
+        <v>0.9516227650149083</v>
       </c>
       <c r="L22">
-        <v>0.9186145104941758</v>
+        <v>0.9186145104941774</v>
       </c>
       <c r="M22">
-        <v>0.8231343993932324</v>
+        <v>0.823134399393235</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8992781771689615</v>
+        <v>0.8992781771689631</v>
       </c>
       <c r="D23">
-        <v>0.9399934129697752</v>
+        <v>0.939993412969777</v>
       </c>
       <c r="E23">
-        <v>0.9074353052739917</v>
+        <v>0.9074353052739936</v>
       </c>
       <c r="F23">
-        <v>0.814165451030575</v>
+        <v>0.8141654510305767</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008346218470645</v>
+        <v>1.008346218470646</v>
       </c>
       <c r="J23">
-        <v>0.9343862170778594</v>
+        <v>0.9343862170778612</v>
       </c>
       <c r="K23">
-        <v>0.9565123022836702</v>
+        <v>0.9565123022836722</v>
       </c>
       <c r="L23">
-        <v>0.9247322389090616</v>
+        <v>0.9247322389090633</v>
       </c>
       <c r="M23">
-        <v>0.8341744342467485</v>
+        <v>0.8341744342467504</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9238650378449305</v>
+        <v>0.9238650378449328</v>
       </c>
       <c r="D24">
-        <v>0.9588574503618251</v>
+        <v>0.958857450361827</v>
       </c>
       <c r="E24">
-        <v>0.9306869191381469</v>
+        <v>0.9306869191381489</v>
       </c>
       <c r="F24">
-        <v>0.8546278463882264</v>
+        <v>0.8546278463882293</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017183041064442</v>
+        <v>1.017183041064443</v>
       </c>
       <c r="J24">
-        <v>0.9546452451355907</v>
+        <v>0.9546452451355928</v>
       </c>
       <c r="K24">
-        <v>0.9736477668225798</v>
+        <v>0.9736477668225817</v>
       </c>
       <c r="L24">
-        <v>0.9460513638842943</v>
+        <v>0.9460513638842964</v>
       </c>
       <c r="M24">
-        <v>0.8717999756233089</v>
+        <v>0.8717999756233118</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9481682559726792</v>
+        <v>0.948168255972677</v>
       </c>
       <c r="D25">
-        <v>0.977568436060409</v>
+        <v>0.9775684360604072</v>
       </c>
       <c r="E25">
-        <v>0.9535409186090215</v>
+        <v>0.953540918609019</v>
       </c>
       <c r="F25">
-        <v>0.8931060223059024</v>
+        <v>0.8931060223058996</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025826233305263</v>
+        <v>1.025826233305262</v>
       </c>
       <c r="J25">
-        <v>0.9745753759105097</v>
+        <v>0.9745753759105074</v>
       </c>
       <c r="K25">
-        <v>0.9905252491706198</v>
+        <v>0.9905252491706179</v>
       </c>
       <c r="L25">
-        <v>0.9669059756902799</v>
+        <v>0.9669059756902776</v>
       </c>
       <c r="M25">
-        <v>0.907626304912697</v>
+        <v>0.9076263049126941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9652620335237919</v>
+        <v>0.9681196235306011</v>
       </c>
       <c r="D2">
-        <v>0.9907591115568748</v>
+        <v>0.9930319198702382</v>
       </c>
       <c r="E2">
-        <v>0.9695536223755493</v>
+        <v>0.9720582439152038</v>
       </c>
       <c r="F2">
-        <v>0.9194999749684977</v>
+        <v>0.9223204449885544</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031830535001234</v>
+        <v>1.032983147401039</v>
       </c>
       <c r="J2">
-        <v>0.9885338296416954</v>
+        <v>0.9912975579425817</v>
       </c>
       <c r="K2">
-        <v>1.002348705775884</v>
+        <v>1.004589192367926</v>
       </c>
       <c r="L2">
-        <v>0.9814540765272649</v>
+        <v>0.9839210831370752</v>
       </c>
       <c r="M2">
-        <v>0.9322076997580614</v>
+        <v>0.9349796710357271</v>
+      </c>
+      <c r="N2">
+        <v>0.9927053141782793</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9766785989364462</v>
+        <v>0.9794945152722273</v>
       </c>
       <c r="D3">
-        <v>0.9995789178086226</v>
+        <v>1.001822868334421</v>
       </c>
       <c r="E3">
-        <v>0.9802230777165537</v>
+        <v>0.9826882486779672</v>
       </c>
       <c r="F3">
-        <v>0.9368853353948685</v>
+        <v>0.9396183919098723</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035796226530552</v>
+        <v>1.036935741487709</v>
       </c>
       <c r="J3">
-        <v>0.9978258699023863</v>
+        <v>1.000560230101647</v>
       </c>
       <c r="K3">
-        <v>1.010217189296764</v>
+        <v>1.012432478233249</v>
       </c>
       <c r="L3">
-        <v>0.9911154223644676</v>
+        <v>0.9935475359509853</v>
       </c>
       <c r="M3">
-        <v>0.9483949842767379</v>
+        <v>0.9510869710935614</v>
+      </c>
+      <c r="N3">
+        <v>1.001981140394254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9836824227378459</v>
+        <v>0.9864755084827761</v>
       </c>
       <c r="D4">
-        <v>1.004992425695337</v>
+        <v>1.007220684744485</v>
       </c>
       <c r="E4">
-        <v>0.9867591385805092</v>
+        <v>0.9892027998068821</v>
       </c>
       <c r="F4">
-        <v>0.9474695004938027</v>
+        <v>0.950154774681474</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038208134984436</v>
+        <v>1.039340646413274</v>
       </c>
       <c r="J4">
-        <v>1.003512948955351</v>
+        <v>1.00623161542999</v>
       </c>
       <c r="K4">
-        <v>1.015030967675566</v>
+        <v>1.017232736682025</v>
       </c>
       <c r="L4">
-        <v>0.997020040474082</v>
+        <v>0.9994333083133573</v>
       </c>
       <c r="M4">
-        <v>0.9582461853825636</v>
+        <v>0.9608944979453936</v>
+      </c>
+      <c r="N4">
+        <v>1.007660579740281</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9865442448095996</v>
+        <v>0.9893285593213994</v>
       </c>
       <c r="D5">
-        <v>1.007204847089003</v>
+        <v>1.009427105420782</v>
       </c>
       <c r="E5">
-        <v>0.9894278056171584</v>
+        <v>0.9918632245823581</v>
       </c>
       <c r="F5">
-        <v>0.9517782493633973</v>
+        <v>0.9544451600930297</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039188563469566</v>
+        <v>1.04031842525852</v>
       </c>
       <c r="J5">
-        <v>1.005833592008161</v>
+        <v>1.008546319583519</v>
       </c>
       <c r="K5">
-        <v>1.016994648133871</v>
+        <v>1.019191289118119</v>
       </c>
       <c r="L5">
-        <v>0.9994276740606794</v>
+        <v>1.001833761996143</v>
       </c>
       <c r="M5">
-        <v>0.9622555025207262</v>
+        <v>0.9648870435356361</v>
+      </c>
+      <c r="N5">
+        <v>1.009978571039208</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9870201529983046</v>
+        <v>0.989803039277543</v>
       </c>
       <c r="D6">
-        <v>1.007572780832112</v>
+        <v>1.009794063694264</v>
       </c>
       <c r="E6">
-        <v>0.9898714798367962</v>
+        <v>0.9923055579007558</v>
       </c>
       <c r="F6">
-        <v>0.9524939199125054</v>
+        <v>0.955157839344336</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03935130222867</v>
+        <v>1.040480735006524</v>
       </c>
       <c r="J6">
-        <v>1.006219320909579</v>
+        <v>1.008931086697968</v>
       </c>
       <c r="K6">
-        <v>1.017321005026745</v>
+        <v>1.019516814883601</v>
       </c>
       <c r="L6">
-        <v>0.9998277642282752</v>
+        <v>1.002232686523678</v>
       </c>
       <c r="M6">
-        <v>0.9629213719778356</v>
+        <v>0.9655501818298032</v>
+      </c>
+      <c r="N6">
+        <v>1.010363884567092</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9837209760529928</v>
+        <v>0.9865139415327895</v>
       </c>
       <c r="D7">
-        <v>1.005022229192423</v>
+        <v>1.007250405851281</v>
       </c>
       <c r="E7">
-        <v>0.9867950975540329</v>
+        <v>0.9892386456842202</v>
       </c>
       <c r="F7">
-        <v>0.9475276058306752</v>
+        <v>0.9502126282933433</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038221363279112</v>
+        <v>1.039353838210767</v>
       </c>
       <c r="J7">
-        <v>1.003544224157068</v>
+        <v>1.006262808838387</v>
       </c>
       <c r="K7">
-        <v>1.015057434673083</v>
+        <v>1.017259133100349</v>
       </c>
       <c r="L7">
-        <v>0.9970524948035396</v>
+        <v>0.9994656639559493</v>
       </c>
       <c r="M7">
-        <v>0.9583002571398808</v>
+        <v>0.9609483397439749</v>
+      </c>
+      <c r="N7">
+        <v>1.007691817446895</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9692058107190196</v>
+        <v>0.9720483477385601</v>
       </c>
       <c r="D8">
-        <v>0.9938051060923604</v>
+        <v>0.9960674628088506</v>
       </c>
       <c r="E8">
-        <v>0.9732415056839578</v>
+        <v>0.9757318508993315</v>
       </c>
       <c r="F8">
-        <v>0.9255255325720704</v>
+        <v>0.9283143786710956</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033204907693474</v>
+        <v>1.034352749124153</v>
       </c>
       <c r="J8">
-        <v>0.9917466255806643</v>
+        <v>0.9944996508570642</v>
       </c>
       <c r="K8">
-        <v>1.005069650228462</v>
+        <v>1.007300967634535</v>
       </c>
       <c r="L8">
-        <v>0.9847965662812965</v>
+        <v>0.9872509031503905</v>
       </c>
       <c r="M8">
-        <v>0.9378186565724695</v>
+        <v>0.9405616820225168</v>
+      </c>
+      <c r="N8">
+        <v>0.9959119544319853</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9401615334213764</v>
+        <v>0.9431337946206153</v>
       </c>
       <c r="D9">
-        <v>0.971397852474628</v>
+        <v>0.9737510265867507</v>
       </c>
       <c r="E9">
-        <v>0.9460238426226278</v>
+        <v>0.9486380798898042</v>
       </c>
       <c r="F9">
-        <v>0.8805668099601081</v>
+        <v>0.8836313786319439</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022990888833494</v>
+        <v>1.024180877583031</v>
       </c>
       <c r="J9">
-        <v>0.9680199320817149</v>
+        <v>0.9708678203447533</v>
       </c>
       <c r="K9">
-        <v>0.9849726761538597</v>
+        <v>0.9872848328515056</v>
       </c>
       <c r="L9">
-        <v>0.9600578775037393</v>
+        <v>0.9626233223238949</v>
       </c>
       <c r="M9">
-        <v>0.8959486666857507</v>
+        <v>0.8989441924509693</v>
+      </c>
+      <c r="N9">
+        <v>0.9722465640097384</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9174393152837927</v>
+        <v>0.9205514873311557</v>
       </c>
       <c r="D10">
-        <v>0.9539204998311499</v>
+        <v>0.9563729437435876</v>
       </c>
       <c r="E10">
-        <v>0.9246244067909277</v>
+        <v>0.9273741918567426</v>
       </c>
       <c r="F10">
-        <v>0.8442236134640286</v>
+        <v>0.8475963284031265</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014881274776758</v>
+        <v>1.016118417009291</v>
       </c>
       <c r="J10">
-        <v>0.9493600050391547</v>
+        <v>0.9523148980208639</v>
       </c>
       <c r="K10">
-        <v>0.9691747459713457</v>
+        <v>0.9715772574133793</v>
       </c>
       <c r="L10">
-        <v>0.9405024047827933</v>
+        <v>0.9431914142783286</v>
       </c>
       <c r="M10">
-        <v>0.862118830046153</v>
+        <v>0.8653964033633305</v>
+      </c>
+      <c r="N10">
+        <v>0.9536672944080991</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.906430571461231</v>
+        <v>0.9096275339378009</v>
       </c>
       <c r="D11">
-        <v>0.9454735023311276</v>
+        <v>0.9479865702093656</v>
       </c>
       <c r="E11">
-        <v>0.9142152394774206</v>
+        <v>0.9170480365525533</v>
       </c>
       <c r="F11">
-        <v>0.826128105210194</v>
+        <v>0.8296938455775108</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010924713644711</v>
+        <v>1.012190959123179</v>
       </c>
       <c r="J11">
-        <v>0.9402898177380998</v>
+        <v>0.943311158446998</v>
       </c>
       <c r="K11">
-        <v>0.9615025663010387</v>
+        <v>0.9639608884382825</v>
       </c>
       <c r="L11">
-        <v>0.9309590379498968</v>
+        <v>0.933724368595499</v>
       </c>
       <c r="M11">
-        <v>0.8452907697177623</v>
+        <v>0.8487447840684861</v>
+      </c>
+      <c r="N11">
+        <v>0.9446507684912949</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9021145406864246</v>
+        <v>0.9053485948361217</v>
       </c>
       <c r="D12">
-        <v>0.9421658361750833</v>
+        <v>0.944705516656833</v>
       </c>
       <c r="E12">
-        <v>0.9101256910317341</v>
+        <v>0.9129949947063193</v>
       </c>
       <c r="F12">
-        <v>0.8189302717581548</v>
+        <v>0.8225819819174159</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009369445170659</v>
+        <v>1.01064851873013</v>
       </c>
       <c r="J12">
-        <v>0.9367283905144598</v>
+        <v>0.9397791043999596</v>
       </c>
       <c r="K12">
-        <v>0.9584917652134549</v>
+        <v>0.9609747015297404</v>
       </c>
       <c r="L12">
-        <v>0.927204152593831</v>
+        <v>0.9300031668624116</v>
       </c>
       <c r="M12">
-        <v>0.8386012599330902</v>
+        <v>0.842133790550934</v>
+      </c>
+      <c r="N12">
+        <v>0.9411136985223776</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9030517180111488</v>
+        <v>0.9062775143977536</v>
       </c>
       <c r="D13">
-        <v>0.9428838608886698</v>
+        <v>0.9454176119758062</v>
       </c>
       <c r="E13">
-        <v>0.9110141286382489</v>
+        <v>0.9138752948964985</v>
       </c>
       <c r="F13">
-        <v>0.8204985035032974</v>
+        <v>0.8241309933879047</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009707336931181</v>
+        <v>1.010983549902132</v>
       </c>
       <c r="J13">
-        <v>0.9375019794483954</v>
+        <v>0.9405461390983756</v>
       </c>
       <c r="K13">
-        <v>0.9591456609939703</v>
+        <v>0.9616231077282162</v>
       </c>
       <c r="L13">
-        <v>0.9280201495986723</v>
+        <v>0.9308116499764235</v>
       </c>
       <c r="M13">
-        <v>0.8400585150643328</v>
+        <v>0.8435734954477488</v>
+      </c>
+      <c r="N13">
+        <v>0.9418818224980454</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9060788232939737</v>
+        <v>0.9092787209276717</v>
       </c>
       <c r="D14">
-        <v>0.9452038473553926</v>
+        <v>0.9477190191952495</v>
       </c>
       <c r="E14">
-        <v>0.9138821395100479</v>
+        <v>0.9167178212484359</v>
       </c>
       <c r="F14">
-        <v>0.8255437966248415</v>
+        <v>0.8291163060011323</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010798043855852</v>
+        <v>1.012065302453477</v>
       </c>
       <c r="J14">
-        <v>0.9399996844534799</v>
+        <v>0.9430233431740499</v>
       </c>
       <c r="K14">
-        <v>0.9612572512654268</v>
+        <v>0.9637175170295876</v>
       </c>
       <c r="L14">
-        <v>0.9306533127054908</v>
+        <v>0.9334213024930507</v>
       </c>
       <c r="M14">
-        <v>0.8447476295649798</v>
+        <v>0.8482078275802919</v>
+      </c>
+      <c r="N14">
+        <v>0.9443625444876466</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9079119003862999</v>
+        <v>0.9110966657475007</v>
       </c>
       <c r="D15">
-        <v>0.946609276293397</v>
+        <v>0.9491136048060744</v>
       </c>
       <c r="E15">
-        <v>0.9156176737866354</v>
+        <v>0.9184384913822621</v>
       </c>
       <c r="F15">
-        <v>0.8285844686579832</v>
+        <v>0.8321221428449512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011457999331707</v>
+        <v>1.012720038589383</v>
       </c>
       <c r="J15">
-        <v>0.9415114419008015</v>
+        <v>0.9445231621652644</v>
       </c>
       <c r="K15">
-        <v>0.9625355528838824</v>
+        <v>0.9649858061434713</v>
       </c>
       <c r="L15">
-        <v>0.9322459925194466</v>
+        <v>0.9350002849344032</v>
       </c>
       <c r="M15">
-        <v>0.8475742444970351</v>
+        <v>0.8510026169016185</v>
+      </c>
+      <c r="N15">
+        <v>0.9458644933938599</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9181414409640565</v>
+        <v>0.9212486337443756</v>
       </c>
       <c r="D16">
-        <v>0.954459723623438</v>
+        <v>0.9569086172531051</v>
       </c>
       <c r="E16">
-        <v>0.9252872974491044</v>
+        <v>0.9280322273067524</v>
       </c>
       <c r="F16">
-        <v>0.8453658222516901</v>
+        <v>0.8487273523382473</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015133073814882</v>
+        <v>1.016368517630915</v>
       </c>
       <c r="J16">
-        <v>0.949937831302863</v>
+        <v>0.9528888553464426</v>
       </c>
       <c r="K16">
-        <v>0.9696636961478209</v>
+        <v>0.9720629518590094</v>
       </c>
       <c r="L16">
-        <v>0.9411094769094417</v>
+        <v>0.9437940356364825</v>
       </c>
       <c r="M16">
-        <v>0.863181476471651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8664488197495447</v>
+      </c>
+      <c r="N16">
+        <v>0.9542420668189141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9242156146845613</v>
+        <v>0.927281642596601</v>
       </c>
       <c r="D17">
-        <v>0.9591269342059592</v>
+        <v>0.9615465221534761</v>
       </c>
       <c r="E17">
-        <v>0.9310174187862529</v>
+        <v>0.9337222954151299</v>
       </c>
       <c r="F17">
-        <v>0.8551924032990768</v>
+        <v>0.8584620958142415</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017308445334766</v>
+        <v>1.018529899143001</v>
       </c>
       <c r="J17">
-        <v>0.9549334110340372</v>
+        <v>0.9578526062141434</v>
       </c>
       <c r="K17">
-        <v>0.9738916914012351</v>
+        <v>0.976264134069301</v>
       </c>
       <c r="L17">
-        <v>0.9463536687205111</v>
+        <v>0.9490015735014715</v>
       </c>
       <c r="M17">
-        <v>0.8723253948318177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8755087166097784</v>
+      </c>
+      <c r="N17">
+        <v>0.9592128667821971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.92765003114707</v>
+        <v>0.9306942093489917</v>
       </c>
       <c r="D18">
-        <v>0.9617676272928322</v>
+        <v>0.9641716948488406</v>
       </c>
       <c r="E18">
-        <v>0.9342537758910884</v>
+        <v>0.9369374562946305</v>
       </c>
       <c r="F18">
-        <v>0.8607069821955013</v>
+        <v>0.8639283800920345</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018535951814094</v>
+        <v>1.019750019875038</v>
       </c>
       <c r="J18">
-        <v>0.9577553922509356</v>
+        <v>0.9606578138065461</v>
       </c>
       <c r="K18">
-        <v>0.9762806326349995</v>
+        <v>0.978638922820929</v>
       </c>
       <c r="L18">
-        <v>0.949312841946324</v>
+        <v>0.9519413982349723</v>
       </c>
       <c r="M18">
-        <v>0.8774581526278501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.880597274022256</v>
+      </c>
+      <c r="N18">
+        <v>0.9620220580911428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9288038662724402</v>
+        <v>0.9318409206569285</v>
       </c>
       <c r="D19">
-        <v>0.9626550828812591</v>
+        <v>0.9650540957057041</v>
       </c>
       <c r="E19">
-        <v>0.935340521120691</v>
+        <v>0.9380173004588831</v>
       </c>
       <c r="F19">
-        <v>0.8625532669729962</v>
+        <v>0.8657589856337469</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018947925432999</v>
+        <v>1.020159591944168</v>
       </c>
       <c r="J19">
-        <v>0.9587030530905823</v>
+        <v>0.9616000251334786</v>
       </c>
       <c r="K19">
-        <v>0.9770829536213673</v>
+        <v>0.9794366423329723</v>
       </c>
       <c r="L19">
-        <v>0.9503060648285656</v>
+        <v>0.9529283295257672</v>
       </c>
       <c r="M19">
-        <v>0.8791767845741252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8823015537794306</v>
+      </c>
+      <c r="N19">
+        <v>0.9629656074662327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.923575437328782</v>
+        <v>0.9266456481965727</v>
       </c>
       <c r="D20">
-        <v>0.9586348483504455</v>
+        <v>0.9610574103736562</v>
       </c>
       <c r="E20">
-        <v>0.9304138838674703</v>
+        <v>0.9331228234140253</v>
       </c>
       <c r="F20">
-        <v>0.8541612499391139</v>
+        <v>0.8574402235132098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017079434369065</v>
+        <v>1.018302305408859</v>
       </c>
       <c r="J20">
-        <v>0.9544071856757003</v>
+        <v>0.9573296019029465</v>
       </c>
       <c r="K20">
-        <v>0.9734462591310729</v>
+        <v>0.975821417691015</v>
       </c>
       <c r="L20">
-        <v>0.9458016056294012</v>
+        <v>0.9484532231706964</v>
       </c>
       <c r="M20">
-        <v>0.8713657329565995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8745575477662119</v>
+      </c>
+      <c r="N20">
+        <v>0.9586891197448892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9051942187845474</v>
+        <v>0.9084015652611653</v>
       </c>
       <c r="D21">
-        <v>0.9445257649299453</v>
+        <v>0.9470462777363482</v>
       </c>
       <c r="E21">
-        <v>0.9130442858453058</v>
+        <v>0.9158872915387609</v>
       </c>
       <c r="F21">
-        <v>0.8240725531076971</v>
+        <v>0.8276622671102323</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010479419634036</v>
+        <v>1.011749250898996</v>
       </c>
       <c r="J21">
-        <v>0.9392699433974216</v>
+        <v>0.942299489764835</v>
       </c>
       <c r="K21">
-        <v>0.9606402664841912</v>
+        <v>0.9631054680488227</v>
       </c>
       <c r="L21">
-        <v>0.9298842244503408</v>
+        <v>0.9326589675462749</v>
       </c>
       <c r="M21">
-        <v>0.843380118730113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8468560324462241</v>
+      </c>
+      <c r="N21">
+        <v>0.9436376631235633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,75 +1241,81 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8922760993496066</v>
+        <v>0.8956044534117853</v>
       </c>
       <c r="D22">
-        <v>0.9346348103306168</v>
+        <v>0.9372423782482128</v>
       </c>
       <c r="E22">
-        <v>0.9007831940381109</v>
+        <v>0.9037458146427654</v>
       </c>
       <c r="F22">
-        <v>0.8022763303486717</v>
+        <v>0.8061507894899295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005816516909718</v>
+        <v>1.007128430091508</v>
       </c>
       <c r="J22">
-        <v>0.9285981310625516</v>
+        <v>0.9317242471409162</v>
       </c>
       <c r="K22">
-        <v>0.9516227650149083</v>
+        <v>0.9541687528905866</v>
       </c>
       <c r="L22">
-        <v>0.9186145104941774</v>
+        <v>0.9214999033112234</v>
       </c>
       <c r="M22">
-        <v>0.823134399393235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.826870170969552</v>
+      </c>
+      <c r="N22">
+        <v>0.9330474024421213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.8992781771689631</v>
+        <v>0.9025379498262763</v>
       </c>
       <c r="D23">
-        <v>0.939993412969777</v>
+        <v>0.9425515767410135</v>
       </c>
       <c r="E23">
-        <v>0.9074353052739936</v>
+        <v>0.9103299885176608</v>
       </c>
       <c r="F23">
-        <v>0.8141654510305767</v>
+        <v>0.8178773178154355</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008346218470646</v>
+        <v>1.009634217574054</v>
       </c>
       <c r="J23">
-        <v>0.9343862170778612</v>
+        <v>0.9374573962238655</v>
       </c>
       <c r="K23">
-        <v>0.9565123022836722</v>
+        <v>0.9590123698778369</v>
       </c>
       <c r="L23">
-        <v>0.9247322389090633</v>
+        <v>0.9275547080989263</v>
       </c>
       <c r="M23">
-        <v>0.8341744342467504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8377618808769728</v>
+      </c>
+      <c r="N23">
+        <v>0.9387886932543695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9238650378449328</v>
+        <v>0.9269333520624037</v>
       </c>
       <c r="D24">
-        <v>0.958857450361827</v>
+        <v>0.961278663759263</v>
       </c>
       <c r="E24">
-        <v>0.9306869191381489</v>
+        <v>0.9333940162620226</v>
       </c>
       <c r="F24">
-        <v>0.8546278463882293</v>
+        <v>0.8579026102935751</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017183041064443</v>
+        <v>1.018405269370809</v>
       </c>
       <c r="J24">
-        <v>0.9546452451355928</v>
+        <v>0.957566200480377</v>
       </c>
       <c r="K24">
-        <v>0.9736477668225817</v>
+        <v>0.976021693680296</v>
       </c>
       <c r="L24">
-        <v>0.9460513638842964</v>
+        <v>0.9487012976339044</v>
       </c>
       <c r="M24">
-        <v>0.8717999756233118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8749879382446288</v>
+      </c>
+      <c r="N24">
+        <v>0.9589260543194376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.948168255972677</v>
+        <v>0.9511000642632285</v>
       </c>
       <c r="D25">
-        <v>0.9775684360604072</v>
+        <v>0.9798931316195928</v>
       </c>
       <c r="E25">
-        <v>0.953540918609019</v>
+        <v>0.9561163224202043</v>
       </c>
       <c r="F25">
-        <v>0.8931060223058996</v>
+        <v>0.8960837248740307</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025826233305262</v>
+        <v>1.027002865330713</v>
       </c>
       <c r="J25">
-        <v>0.9745753759105074</v>
+        <v>0.9773931206992309</v>
       </c>
       <c r="K25">
-        <v>0.9905252491706179</v>
+        <v>0.9928118120244804</v>
       </c>
       <c r="L25">
-        <v>0.9669059756902776</v>
+        <v>0.9694363504794948</v>
       </c>
       <c r="M25">
-        <v>0.9076263049126941</v>
+        <v>0.9105422687200593</v>
+      </c>
+      <c r="N25">
+        <v>0.978781131039182</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9681196235306011</v>
+        <v>0.9953114355970116</v>
       </c>
       <c r="D2">
-        <v>0.9930319198702382</v>
+        <v>1.018275987872757</v>
       </c>
       <c r="E2">
-        <v>0.9720582439152038</v>
+        <v>0.9999343097683251</v>
       </c>
       <c r="F2">
-        <v>0.9223204449885544</v>
+        <v>1.018834141677516</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032983147401039</v>
+        <v>1.045791424979283</v>
       </c>
       <c r="J2">
-        <v>0.9912975579425817</v>
+        <v>1.017633290911752</v>
       </c>
       <c r="K2">
-        <v>1.004589192367926</v>
+        <v>1.029486448071198</v>
       </c>
       <c r="L2">
-        <v>0.9839210831370752</v>
+        <v>1.011394559835906</v>
       </c>
       <c r="M2">
-        <v>0.9349796710357271</v>
+        <v>1.030037177571621</v>
       </c>
       <c r="N2">
-        <v>0.9927053141782793</v>
+        <v>1.019078446909017</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9794945152722273</v>
+        <v>1.005243238274386</v>
       </c>
       <c r="D3">
-        <v>1.001822868334421</v>
+        <v>1.02626259667705</v>
       </c>
       <c r="E3">
-        <v>0.9826882486779672</v>
+        <v>1.008548414497786</v>
       </c>
       <c r="F3">
-        <v>0.9396183919098723</v>
+        <v>1.027857650075309</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036935741487709</v>
+        <v>1.049351857875477</v>
       </c>
       <c r="J3">
-        <v>1.000560230101647</v>
+        <v>1.025591980750533</v>
       </c>
       <c r="K3">
-        <v>1.012432478233249</v>
+        <v>1.036570118247127</v>
       </c>
       <c r="L3">
-        <v>0.9935475359509853</v>
+        <v>1.019073072836215</v>
       </c>
       <c r="M3">
-        <v>0.9510869710935614</v>
+        <v>1.038146075421268</v>
       </c>
       <c r="N3">
-        <v>1.001981140394254</v>
+        <v>1.027048439000243</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9864755084827761</v>
+        <v>1.011416362499238</v>
       </c>
       <c r="D4">
-        <v>1.007220684744485</v>
+        <v>1.031230392412021</v>
       </c>
       <c r="E4">
-        <v>0.9892027998068821</v>
+        <v>1.013903378157385</v>
       </c>
       <c r="F4">
-        <v>0.950154774681474</v>
+        <v>1.033476540950937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039340646413274</v>
+        <v>1.051548245216742</v>
       </c>
       <c r="J4">
-        <v>1.00623161542999</v>
+        <v>1.030532477227575</v>
       </c>
       <c r="K4">
-        <v>1.017232736682025</v>
+        <v>1.040965957296793</v>
       </c>
       <c r="L4">
-        <v>0.9994333083133573</v>
+        <v>1.023836848430421</v>
       </c>
       <c r="M4">
-        <v>0.9608944979453936</v>
+        <v>1.043187048731966</v>
       </c>
       <c r="N4">
-        <v>1.007660579740281</v>
+        <v>1.031995951548965</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9893285593213994</v>
+        <v>1.013955381100673</v>
       </c>
       <c r="D5">
-        <v>1.009427105420782</v>
+        <v>1.033274365727666</v>
       </c>
       <c r="E5">
-        <v>0.9918632245823581</v>
+        <v>1.016105976579584</v>
       </c>
       <c r="F5">
-        <v>0.9544451600930297</v>
+        <v>1.035789891219741</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04031842525852</v>
+        <v>1.052447546496681</v>
       </c>
       <c r="J5">
-        <v>1.008546319583519</v>
+        <v>1.032562928024109</v>
       </c>
       <c r="K5">
-        <v>1.019191289118119</v>
+        <v>1.042772162318309</v>
       </c>
       <c r="L5">
-        <v>1.001833761996143</v>
+        <v>1.025794000211345</v>
       </c>
       <c r="M5">
-        <v>0.9648870435356361</v>
+        <v>1.045260465190042</v>
       </c>
       <c r="N5">
-        <v>1.009978571039208</v>
+        <v>1.034029285818526</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.989803039277543</v>
+        <v>1.014378521325669</v>
       </c>
       <c r="D6">
-        <v>1.009794063694264</v>
+        <v>1.033615040930585</v>
       </c>
       <c r="E6">
-        <v>0.9923055579007558</v>
+        <v>1.016473052942974</v>
       </c>
       <c r="F6">
-        <v>0.955157839344336</v>
+        <v>1.036175552296547</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040480735006524</v>
+        <v>1.052597177078769</v>
       </c>
       <c r="J6">
-        <v>1.008931086697968</v>
+        <v>1.032901217146333</v>
       </c>
       <c r="K6">
-        <v>1.019516814883601</v>
+        <v>1.04307306534349</v>
       </c>
       <c r="L6">
-        <v>1.002232686523678</v>
+        <v>1.026120037739878</v>
       </c>
       <c r="M6">
-        <v>0.9655501818298032</v>
+        <v>1.045606009372219</v>
       </c>
       <c r="N6">
-        <v>1.010363884567092</v>
+        <v>1.034368055350107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9865139415327895</v>
+        <v>1.011450504108394</v>
       </c>
       <c r="D7">
-        <v>1.007250405851281</v>
+        <v>1.031257874675062</v>
       </c>
       <c r="E7">
-        <v>0.9892386456842202</v>
+        <v>1.013932995782222</v>
       </c>
       <c r="F7">
-        <v>0.9502126282933433</v>
+        <v>1.033507639204254</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039353838210767</v>
+        <v>1.051560354206501</v>
       </c>
       <c r="J7">
-        <v>1.006262808838387</v>
+        <v>1.030559786639796</v>
       </c>
       <c r="K7">
-        <v>1.017259133100349</v>
+        <v>1.040990252275399</v>
       </c>
       <c r="L7">
-        <v>0.9994656639559493</v>
+        <v>1.023863174633218</v>
       </c>
       <c r="M7">
-        <v>0.9609483397439749</v>
+        <v>1.043214929477022</v>
       </c>
       <c r="N7">
-        <v>1.007691817446895</v>
+        <v>1.032023299743684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9720483477385601</v>
+        <v>0.9987232947278539</v>
       </c>
       <c r="D8">
-        <v>0.9960674628088506</v>
+        <v>1.021018710321755</v>
       </c>
       <c r="E8">
-        <v>0.9757318508993315</v>
+        <v>1.002893244506381</v>
       </c>
       <c r="F8">
-        <v>0.9283143786710956</v>
+        <v>1.021931660395042</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034352749124153</v>
+        <v>1.047018004130833</v>
       </c>
       <c r="J8">
-        <v>0.9944996508570642</v>
+        <v>1.020368596420759</v>
       </c>
       <c r="K8">
-        <v>1.007300967634535</v>
+        <v>1.031921302028435</v>
       </c>
       <c r="L8">
-        <v>0.9872509031503905</v>
+        <v>1.014034167067748</v>
       </c>
       <c r="M8">
-        <v>0.9405616820225168</v>
+        <v>1.032822527402993</v>
       </c>
       <c r="N8">
-        <v>0.9959119544319853</v>
+        <v>1.02181763686559</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9431337946206153</v>
+        <v>0.974119359968645</v>
       </c>
       <c r="D9">
-        <v>0.9737510265867507</v>
+        <v>1.001265459984769</v>
       </c>
       <c r="E9">
-        <v>0.9486380798898042</v>
+        <v>0.9815650224442449</v>
       </c>
       <c r="F9">
-        <v>0.8836313786319439</v>
+        <v>0.9996494137286818</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024180877583031</v>
+        <v>1.038103882725703</v>
       </c>
       <c r="J9">
-        <v>0.9708678203447533</v>
+        <v>1.000620339047883</v>
       </c>
       <c r="K9">
-        <v>0.9872848328515056</v>
+        <v>1.014338039294728</v>
       </c>
       <c r="L9">
-        <v>0.9626233223238949</v>
+        <v>0.9949644473074889</v>
       </c>
       <c r="M9">
-        <v>0.8989441924509693</v>
+        <v>1.012748181512542</v>
       </c>
       <c r="N9">
-        <v>0.9722465640097384</v>
+        <v>1.002041334702088</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9205514873311557</v>
+        <v>0.9558550936549638</v>
       </c>
       <c r="D10">
-        <v>0.9563729437435876</v>
+        <v>0.9866472201451126</v>
       </c>
       <c r="E10">
-        <v>0.9273741918567426</v>
+        <v>0.9657529210187462</v>
       </c>
       <c r="F10">
-        <v>0.8475963284031265</v>
+        <v>0.983192732840764</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016118417009291</v>
+        <v>1.031403254639043</v>
       </c>
       <c r="J10">
-        <v>0.9523148980208639</v>
+        <v>0.9859366818921174</v>
       </c>
       <c r="K10">
-        <v>0.9715772574133793</v>
+        <v>1.001261822239834</v>
       </c>
       <c r="L10">
-        <v>0.9431914142783286</v>
+        <v>0.9807693291565904</v>
       </c>
       <c r="M10">
-        <v>0.8653964033633305</v>
+        <v>0.9978722265074923</v>
       </c>
       <c r="N10">
-        <v>0.9536672944080991</v>
+        <v>0.9873368250689223</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9096275339378009</v>
+        <v>0.9473895969817602</v>
       </c>
       <c r="D11">
-        <v>0.9479865702093656</v>
+        <v>0.9798872566304061</v>
       </c>
       <c r="E11">
-        <v>0.9170480365525533</v>
+        <v>0.9584321231982648</v>
       </c>
       <c r="F11">
-        <v>0.8296938455775108</v>
+        <v>0.9755901817788543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.012190959123179</v>
+        <v>1.028279924296088</v>
       </c>
       <c r="J11">
-        <v>0.943311158446998</v>
+        <v>0.9791275153775137</v>
       </c>
       <c r="K11">
-        <v>0.9639608884382825</v>
+        <v>0.99519870562546</v>
       </c>
       <c r="L11">
-        <v>0.933724368595499</v>
+        <v>0.9741829615405112</v>
       </c>
       <c r="M11">
-        <v>0.8487447840684861</v>
+        <v>0.9909875954426449</v>
       </c>
       <c r="N11">
-        <v>0.9446507684912949</v>
+        <v>0.9805179887568455</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9053485948361217</v>
+        <v>0.94414897272649</v>
       </c>
       <c r="D12">
-        <v>0.944705516656833</v>
+        <v>0.9773023665693535</v>
       </c>
       <c r="E12">
-        <v>0.9129949947063193</v>
+        <v>0.9556312598982916</v>
       </c>
       <c r="F12">
-        <v>0.8225819819174159</v>
+        <v>0.972684207161612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01064851873013</v>
+        <v>1.027081898108168</v>
       </c>
       <c r="J12">
-        <v>0.9397791043999596</v>
+        <v>0.9765207045075831</v>
       </c>
       <c r="K12">
-        <v>0.9609747015297404</v>
+        <v>0.9928777310414765</v>
       </c>
       <c r="L12">
-        <v>0.9300031668624116</v>
+        <v>0.9716608934661114</v>
       </c>
       <c r="M12">
-        <v>0.842133790550934</v>
+        <v>0.9883541375495296</v>
       </c>
       <c r="N12">
-        <v>0.9411136985223776</v>
+        <v>0.9779074759164741</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9062775143977536</v>
+        <v>0.9448486800436663</v>
       </c>
       <c r="D13">
-        <v>0.9454176119758062</v>
+        <v>0.9778603519217983</v>
       </c>
       <c r="E13">
-        <v>0.9138752948964985</v>
+        <v>0.9562359382975619</v>
       </c>
       <c r="F13">
-        <v>0.8241309933879047</v>
+        <v>0.9733114539047665</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010983549902132</v>
+        <v>1.02734067682711</v>
       </c>
       <c r="J13">
-        <v>0.9405461390983756</v>
+        <v>0.9770835664007981</v>
       </c>
       <c r="K13">
-        <v>0.9616231077282162</v>
+        <v>0.9933788631329545</v>
       </c>
       <c r="L13">
-        <v>0.9308116499764235</v>
+        <v>0.9722054824209088</v>
       </c>
       <c r="M13">
-        <v>0.8435734954477488</v>
+        <v>0.988922648666688</v>
       </c>
       <c r="N13">
-        <v>0.9418818224980454</v>
+        <v>0.9784711371381388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9092787209276717</v>
+        <v>0.9471237697531876</v>
       </c>
       <c r="D14">
-        <v>0.9477190191952495</v>
+        <v>0.9796751582385457</v>
       </c>
       <c r="E14">
-        <v>0.9167178212484359</v>
+        <v>0.9582023355345936</v>
       </c>
       <c r="F14">
-        <v>0.8291163060011323</v>
+        <v>0.9753517152304375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.012065302453477</v>
+        <v>1.028181697665661</v>
       </c>
       <c r="J14">
-        <v>0.9430233431740499</v>
+        <v>0.9789136827379821</v>
       </c>
       <c r="K14">
-        <v>0.9637175170295876</v>
+        <v>0.995008314469788</v>
       </c>
       <c r="L14">
-        <v>0.9334213024930507</v>
+        <v>0.9739760913187753</v>
       </c>
       <c r="M14">
-        <v>0.8482078275802919</v>
+        <v>0.9907715304914283</v>
       </c>
       <c r="N14">
-        <v>0.9443625444876466</v>
+        <v>0.9803038524504392</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9110966657475007</v>
+        <v>0.9485123648941159</v>
       </c>
       <c r="D15">
-        <v>0.9491136048060744</v>
+        <v>0.98078320987951</v>
       </c>
       <c r="E15">
-        <v>0.9184384913822621</v>
+        <v>0.9594027372555828</v>
       </c>
       <c r="F15">
-        <v>0.8321221428449512</v>
+        <v>0.9765975648512498</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012720038589383</v>
+        <v>1.028694706008112</v>
       </c>
       <c r="J15">
-        <v>0.9445231621652644</v>
+        <v>0.9800306671349311</v>
       </c>
       <c r="K15">
-        <v>0.9649858061434713</v>
+        <v>0.9960028587019797</v>
       </c>
       <c r="L15">
-        <v>0.9350002849344032</v>
+        <v>0.975056684260602</v>
       </c>
       <c r="M15">
-        <v>0.8510026169016185</v>
+        <v>0.9919002676045484</v>
       </c>
       <c r="N15">
-        <v>0.9458644933938599</v>
+        <v>0.9814224230933515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9212486337443756</v>
+        <v>0.956404180968743</v>
       </c>
       <c r="D16">
-        <v>0.9569086172531051</v>
+        <v>0.98708604298152</v>
       </c>
       <c r="E16">
-        <v>0.9280322273067524</v>
+        <v>0.966227954623874</v>
       </c>
       <c r="F16">
-        <v>0.8487273523382473</v>
+        <v>0.9836864048961496</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016368517630915</v>
+        <v>1.031605498141559</v>
       </c>
       <c r="J16">
-        <v>0.9528888553464426</v>
+        <v>0.9863782896512719</v>
       </c>
       <c r="K16">
-        <v>0.9720629518590094</v>
+        <v>1.001655067921782</v>
       </c>
       <c r="L16">
-        <v>0.9437940356364825</v>
+        <v>0.9811964112719055</v>
       </c>
       <c r="M16">
-        <v>0.8664488197495447</v>
+        <v>0.9983190238058371</v>
       </c>
       <c r="N16">
-        <v>0.9542420668189141</v>
+        <v>0.9877790599617479</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.927281642596601</v>
+        <v>0.9611973890540532</v>
       </c>
       <c r="D17">
-        <v>0.9615465221534761</v>
+        <v>0.99091849404305</v>
       </c>
       <c r="E17">
-        <v>0.9337222954151299</v>
+        <v>0.9703756550932474</v>
       </c>
       <c r="F17">
-        <v>0.8584620958142415</v>
+        <v>0.987998721154759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018529899143001</v>
+        <v>1.033369030083535</v>
       </c>
       <c r="J17">
-        <v>0.9578526062141434</v>
+        <v>0.9902329240137728</v>
       </c>
       <c r="K17">
-        <v>0.976264134069301</v>
+        <v>1.005087650946726</v>
       </c>
       <c r="L17">
-        <v>0.9490015735014715</v>
+        <v>0.9849238398556894</v>
       </c>
       <c r="M17">
-        <v>0.8755087166097784</v>
+        <v>1.00222050011376</v>
       </c>
       <c r="N17">
-        <v>0.9592128667821971</v>
+        <v>0.9916391683471766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9306942093489917</v>
+        <v>0.9639404180314739</v>
       </c>
       <c r="D18">
-        <v>0.9641716948488406</v>
+        <v>0.9931131141896573</v>
       </c>
       <c r="E18">
-        <v>0.9369374562946305</v>
+        <v>0.9727500032579338</v>
       </c>
       <c r="F18">
-        <v>0.8639283800920345</v>
+        <v>0.9904688358244477</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019750019875038</v>
+        <v>1.034376608789593</v>
       </c>
       <c r="J18">
-        <v>0.9606578138065461</v>
+        <v>0.9924385089115494</v>
       </c>
       <c r="K18">
-        <v>0.978638922820929</v>
+        <v>1.007051792655247</v>
       </c>
       <c r="L18">
-        <v>0.9519413982349723</v>
+        <v>0.9870562910612303</v>
       </c>
       <c r="M18">
-        <v>0.880597274022256</v>
+        <v>1.004454143022407</v>
       </c>
       <c r="N18">
-        <v>0.9620220580911428</v>
+        <v>0.9938478854284918</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9318409206569285</v>
+        <v>0.9648671066032714</v>
       </c>
       <c r="D19">
-        <v>0.9650540957057041</v>
+        <v>0.9938547570856799</v>
       </c>
       <c r="E19">
-        <v>0.9380173004588831</v>
+        <v>0.9735522531470053</v>
       </c>
       <c r="F19">
-        <v>0.8657589856337469</v>
+        <v>0.991303698701822</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020159591944168</v>
+        <v>1.034716717857773</v>
       </c>
       <c r="J19">
-        <v>0.9616000251334786</v>
+        <v>0.9931835691524635</v>
       </c>
       <c r="K19">
-        <v>0.9794366423329723</v>
+        <v>1.007715297208784</v>
       </c>
       <c r="L19">
-        <v>0.9529283295257672</v>
+        <v>0.9877765870803493</v>
       </c>
       <c r="M19">
-        <v>0.8823015537794306</v>
+        <v>1.00520888957715</v>
       </c>
       <c r="N19">
-        <v>0.9629656074662327</v>
+        <v>0.9945940037404076</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9266456481965727</v>
+        <v>0.960688663002348</v>
       </c>
       <c r="D20">
-        <v>0.9610574103736562</v>
+        <v>0.9905115878244066</v>
       </c>
       <c r="E20">
-        <v>0.9331228234140253</v>
+        <v>0.9699353619529658</v>
       </c>
       <c r="F20">
-        <v>0.8574402235132098</v>
+        <v>0.9875407926730532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018302305408859</v>
+        <v>1.03318202788605</v>
       </c>
       <c r="J20">
-        <v>0.9573296019029465</v>
+        <v>0.9898238452488323</v>
       </c>
       <c r="K20">
-        <v>0.975821417691015</v>
+        <v>1.004723356942286</v>
       </c>
       <c r="L20">
-        <v>0.9484532231706964</v>
+        <v>0.9845282971736988</v>
       </c>
       <c r="M20">
-        <v>0.8745575477662119</v>
+        <v>1.001806318178678</v>
       </c>
       <c r="N20">
-        <v>0.9586891197448892</v>
+        <v>0.9912295086434676</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9084015652611653</v>
+        <v>0.9464565812460509</v>
       </c>
       <c r="D21">
-        <v>0.9470462777363482</v>
+        <v>0.979142869036297</v>
       </c>
       <c r="E21">
-        <v>0.9158872915387609</v>
+        <v>0.9576256276110773</v>
       </c>
       <c r="F21">
-        <v>0.8276622671102323</v>
+        <v>0.974753269244763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011749250898996</v>
+        <v>1.027935125163163</v>
       </c>
       <c r="J21">
-        <v>0.942299489764835</v>
+        <v>0.9783769904310864</v>
       </c>
       <c r="K21">
-        <v>0.9631054680488227</v>
+        <v>0.9945304612391923</v>
       </c>
       <c r="L21">
-        <v>0.9326589675462749</v>
+        <v>0.9734568649561846</v>
       </c>
       <c r="M21">
-        <v>0.8468560324462241</v>
+        <v>0.9902292720263124</v>
       </c>
       <c r="N21">
-        <v>0.9436376631235633</v>
+        <v>0.9797663979789082</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8956044534117853</v>
+        <v>0.9369435530854697</v>
       </c>
       <c r="D22">
-        <v>0.9372423782482128</v>
+        <v>0.9715608907611697</v>
       </c>
       <c r="E22">
-        <v>0.9037458146427654</v>
+        <v>0.9494069923779024</v>
       </c>
       <c r="F22">
-        <v>0.8061507894899295</v>
+        <v>0.9662315602181707</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007128430091508</v>
+        <v>1.024413977696647</v>
       </c>
       <c r="J22">
-        <v>0.9317242471409162</v>
+        <v>0.9707244468814181</v>
       </c>
       <c r="K22">
-        <v>0.9541687528905866</v>
+        <v>0.9877175976460169</v>
       </c>
       <c r="L22">
-        <v>0.9214999033112234</v>
+        <v>0.9660520520964702</v>
       </c>
       <c r="M22">
-        <v>0.826870170969552</v>
+        <v>0.9825030297003056</v>
       </c>
       <c r="N22">
-        <v>0.9330474024421213</v>
+        <v>0.9721029869396399</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9025379498262763</v>
+        <v>0.9420450637209479</v>
       </c>
       <c r="D23">
-        <v>0.9425515767410135</v>
+        <v>0.9756250556005222</v>
       </c>
       <c r="E23">
-        <v>0.9103299885176608</v>
+        <v>0.953813348322711</v>
       </c>
       <c r="F23">
-        <v>0.8178773178154355</v>
+        <v>0.9707988551158507</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009634217574054</v>
+        <v>1.026303460112414</v>
       </c>
       <c r="J23">
-        <v>0.9374573962238655</v>
+        <v>0.9748282563366736</v>
       </c>
       <c r="K23">
-        <v>0.9590123698778369</v>
+        <v>0.9913709388949115</v>
       </c>
       <c r="L23">
-        <v>0.9275547080989263</v>
+        <v>0.9700233094700684</v>
       </c>
       <c r="M23">
-        <v>0.8377618808769728</v>
+        <v>0.9866450481878446</v>
       </c>
       <c r="N23">
-        <v>0.9387886932543695</v>
+        <v>0.9762126242750356</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9269333520624037</v>
+        <v>0.9609186965596322</v>
       </c>
       <c r="D24">
-        <v>0.961278663759263</v>
+        <v>0.9906955765793249</v>
       </c>
       <c r="E24">
-        <v>0.9333940162620226</v>
+        <v>0.9701344495724195</v>
       </c>
       <c r="F24">
-        <v>0.8579026102935751</v>
+        <v>0.9877478497159843</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018405269370809</v>
+        <v>1.033266590876315</v>
       </c>
       <c r="J24">
-        <v>0.957566200480377</v>
+        <v>0.9900088217479964</v>
       </c>
       <c r="K24">
-        <v>0.976021693680296</v>
+        <v>1.004888082600478</v>
       </c>
       <c r="L24">
-        <v>0.9487012976339044</v>
+        <v>0.9847071540352573</v>
       </c>
       <c r="M24">
-        <v>0.8749879382446288</v>
+        <v>1.00199359832219</v>
       </c>
       <c r="N24">
-        <v>0.9589260543194376</v>
+        <v>0.9914147478304776</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9511000642632285</v>
+        <v>0.980774812408142</v>
       </c>
       <c r="D25">
-        <v>0.9798931316195928</v>
+        <v>1.006602561830945</v>
       </c>
       <c r="E25">
-        <v>0.9561163224202043</v>
+        <v>0.9873318379552796</v>
       </c>
       <c r="F25">
-        <v>0.8960837248740307</v>
+        <v>1.005664185248224</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027002865330713</v>
+        <v>1.040529750273501</v>
       </c>
       <c r="J25">
-        <v>0.9773931206992309</v>
+        <v>1.005966966759367</v>
       </c>
       <c r="K25">
-        <v>0.9928118120244804</v>
+        <v>1.01909923894152</v>
       </c>
       <c r="L25">
-        <v>0.9694363504794948</v>
+        <v>1.000130046535814</v>
       </c>
       <c r="M25">
-        <v>0.9105422687200593</v>
+        <v>1.018175203804156</v>
       </c>
       <c r="N25">
-        <v>0.978781131039182</v>
+        <v>1.007395555238189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9953114355970116</v>
+        <v>1.011642295641245</v>
       </c>
       <c r="D2">
-        <v>1.018275987872757</v>
+        <v>1.025427029900547</v>
       </c>
       <c r="E2">
-        <v>0.9999343097683251</v>
-      </c>
-      <c r="F2">
-        <v>1.018834141677516</v>
+        <v>1.016409234754774</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045791424979283</v>
+        <v>1.04559389700178</v>
       </c>
       <c r="J2">
-        <v>1.017633290911752</v>
+        <v>1.033480277520457</v>
       </c>
       <c r="K2">
-        <v>1.029486448071198</v>
+        <v>1.036543136564425</v>
       </c>
       <c r="L2">
-        <v>1.011394559835906</v>
-      </c>
-      <c r="M2">
-        <v>1.030037177571621</v>
+        <v>1.02764460004684</v>
       </c>
       <c r="N2">
-        <v>1.019078446909017</v>
+        <v>1.034947938056391</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005243238274386</v>
+        <v>1.016535066541173</v>
       </c>
       <c r="D3">
-        <v>1.02626259667705</v>
+        <v>1.028927433890688</v>
       </c>
       <c r="E3">
-        <v>1.008548414497786</v>
-      </c>
-      <c r="F3">
-        <v>1.027857650075309</v>
+        <v>1.020357025291193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049351857875477</v>
+        <v>1.047057295582349</v>
       </c>
       <c r="J3">
-        <v>1.025591980750533</v>
+        <v>1.036584898316688</v>
       </c>
       <c r="K3">
-        <v>1.036570118247127</v>
+        <v>1.039203092745596</v>
       </c>
       <c r="L3">
-        <v>1.019073072836215</v>
-      </c>
-      <c r="M3">
-        <v>1.038146075421268</v>
+        <v>1.030735895004428</v>
       </c>
       <c r="N3">
-        <v>1.027048439000243</v>
+        <v>1.038056967770247</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011416362499238</v>
+        <v>1.019631816218268</v>
       </c>
       <c r="D4">
-        <v>1.031230392412021</v>
+        <v>1.03114584836014</v>
       </c>
       <c r="E4">
-        <v>1.013903378157385</v>
-      </c>
-      <c r="F4">
-        <v>1.033476540950937</v>
+        <v>1.022861461269673</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051548245216742</v>
+        <v>1.047974416400111</v>
       </c>
       <c r="J4">
-        <v>1.030532477227575</v>
+        <v>1.038546329189816</v>
       </c>
       <c r="K4">
-        <v>1.040965957296793</v>
+        <v>1.04088235900739</v>
       </c>
       <c r="L4">
-        <v>1.023836848430421</v>
-      </c>
-      <c r="M4">
-        <v>1.043187048731966</v>
+        <v>1.032691581467237</v>
       </c>
       <c r="N4">
-        <v>1.031995951548965</v>
+        <v>1.040021184100195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013955381100673</v>
+        <v>1.020917743888038</v>
       </c>
       <c r="D5">
-        <v>1.033274365727666</v>
+        <v>1.03206769082665</v>
       </c>
       <c r="E5">
-        <v>1.016105976579584</v>
-      </c>
-      <c r="F5">
-        <v>1.035789891219741</v>
+        <v>1.023902771258743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052447546496681</v>
+        <v>1.048353029772809</v>
       </c>
       <c r="J5">
-        <v>1.032562928024109</v>
+        <v>1.039359922385662</v>
       </c>
       <c r="K5">
-        <v>1.042772162318309</v>
+        <v>1.041578603654113</v>
       </c>
       <c r="L5">
-        <v>1.025794000211345</v>
-      </c>
-      <c r="M5">
-        <v>1.045260465190042</v>
+        <v>1.033503433382104</v>
       </c>
       <c r="N5">
-        <v>1.034029285818526</v>
+        <v>1.040835932691699</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014378521325669</v>
+        <v>1.021132739153578</v>
       </c>
       <c r="D6">
-        <v>1.033615040930585</v>
+        <v>1.032221850622521</v>
       </c>
       <c r="E6">
-        <v>1.016473052942974</v>
-      </c>
-      <c r="F6">
-        <v>1.036175552296547</v>
+        <v>1.024076946201349</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052597177078769</v>
+        <v>1.048416198716042</v>
       </c>
       <c r="J6">
-        <v>1.032901217146333</v>
+        <v>1.03949589409149</v>
       </c>
       <c r="K6">
-        <v>1.04307306534349</v>
+        <v>1.041694945059558</v>
       </c>
       <c r="L6">
-        <v>1.026120037739878</v>
-      </c>
-      <c r="M6">
-        <v>1.045606009372219</v>
+        <v>1.033639151794218</v>
       </c>
       <c r="N6">
-        <v>1.034368055350107</v>
+        <v>1.040972097492946</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011450504108394</v>
+        <v>1.019649060705646</v>
       </c>
       <c r="D7">
-        <v>1.031257874675062</v>
+        <v>1.031158207938585</v>
       </c>
       <c r="E7">
-        <v>1.013932995782222</v>
-      </c>
-      <c r="F7">
-        <v>1.033507639204254</v>
+        <v>1.022875420158206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051560354206501</v>
+        <v>1.047979502493388</v>
       </c>
       <c r="J7">
-        <v>1.030559786639796</v>
+        <v>1.038557243176882</v>
       </c>
       <c r="K7">
-        <v>1.040990252275399</v>
+        <v>1.040891700048538</v>
       </c>
       <c r="L7">
-        <v>1.023863174633218</v>
-      </c>
-      <c r="M7">
-        <v>1.043214929477022</v>
+        <v>1.032702469559842</v>
       </c>
       <c r="N7">
-        <v>1.032023299743684</v>
+        <v>1.040032113586375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9987232947278539</v>
+        <v>1.013310543501356</v>
       </c>
       <c r="D8">
-        <v>1.021018710321755</v>
+        <v>1.026619883340475</v>
       </c>
       <c r="E8">
-        <v>1.002893244506381</v>
-      </c>
-      <c r="F8">
-        <v>1.021931660395042</v>
+        <v>1.017754036084549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047018004130833</v>
+        <v>1.046094745953435</v>
       </c>
       <c r="J8">
-        <v>1.020368596420759</v>
+        <v>1.034539556810521</v>
       </c>
       <c r="K8">
-        <v>1.031921302028435</v>
+        <v>1.03745095131573</v>
       </c>
       <c r="L8">
-        <v>1.014034167067748</v>
-      </c>
-      <c r="M8">
-        <v>1.032822527402993</v>
+        <v>1.028698770240839</v>
       </c>
       <c r="N8">
-        <v>1.02181763686559</v>
+        <v>1.036008721644538</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.974119359968645</v>
+        <v>1.001581559823003</v>
       </c>
       <c r="D9">
-        <v>1.001265459984769</v>
+        <v>1.018248234761477</v>
       </c>
       <c r="E9">
-        <v>0.9815650224442449</v>
-      </c>
-      <c r="F9">
-        <v>0.9996494137286818</v>
+        <v>1.00832581876184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038103882725703</v>
+        <v>1.04253631683075</v>
       </c>
       <c r="J9">
-        <v>1.000620339047883</v>
+        <v>1.027078592485115</v>
       </c>
       <c r="K9">
-        <v>1.014338039294728</v>
+        <v>1.031052025864586</v>
       </c>
       <c r="L9">
-        <v>0.9949644473074889</v>
-      </c>
-      <c r="M9">
-        <v>1.012748181512542</v>
+        <v>1.021285244332667</v>
       </c>
       <c r="N9">
-        <v>1.002041334702088</v>
+        <v>1.028537161894005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9558550936549638</v>
+        <v>0.993341347479309</v>
       </c>
       <c r="D10">
-        <v>0.9866472201451126</v>
+        <v>1.012388723243956</v>
       </c>
       <c r="E10">
-        <v>0.9657529210187462</v>
-      </c>
-      <c r="F10">
-        <v>0.983192732840764</v>
+        <v>1.001738465799014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031403254639043</v>
+        <v>1.039990955338187</v>
       </c>
       <c r="J10">
-        <v>0.9859366818921174</v>
+        <v>1.021821664562823</v>
       </c>
       <c r="K10">
-        <v>1.001261822239834</v>
+        <v>1.026537841060675</v>
       </c>
       <c r="L10">
-        <v>0.9807693291565904</v>
-      </c>
-      <c r="M10">
-        <v>0.9978722265074923</v>
+        <v>1.016076402491479</v>
       </c>
       <c r="N10">
-        <v>0.9873368250689223</v>
+        <v>1.023272768531086</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9473895969817602</v>
+        <v>0.9896624978581776</v>
       </c>
       <c r="D11">
-        <v>0.9798872566304061</v>
+        <v>1.009778971691545</v>
       </c>
       <c r="E11">
-        <v>0.9584321231982648</v>
-      </c>
-      <c r="F11">
-        <v>0.9755901817788543</v>
+        <v>0.9988070418904796</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028279924296088</v>
+        <v>1.038844416742521</v>
       </c>
       <c r="J11">
-        <v>0.9791275153775137</v>
+        <v>1.019471743460829</v>
       </c>
       <c r="K11">
-        <v>0.99519870562546</v>
+        <v>1.024518797543466</v>
       </c>
       <c r="L11">
-        <v>0.9741829615405112</v>
-      </c>
-      <c r="M11">
-        <v>0.9909875954426449</v>
+        <v>1.013751490774949</v>
       </c>
       <c r="N11">
-        <v>0.9805179887568455</v>
+        <v>1.020919510271587</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.94414897272649</v>
+        <v>0.9882783505314258</v>
       </c>
       <c r="D12">
-        <v>0.9773023665693535</v>
+        <v>1.008798094500872</v>
       </c>
       <c r="E12">
-        <v>0.9556312598982916</v>
-      </c>
-      <c r="F12">
-        <v>0.972684207161612</v>
+        <v>0.9977056153608416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027081898108168</v>
+        <v>1.038411565572565</v>
       </c>
       <c r="J12">
-        <v>0.9765207045075831</v>
+        <v>1.018587211774181</v>
       </c>
       <c r="K12">
-        <v>0.9928777310414765</v>
+        <v>1.023758655987573</v>
       </c>
       <c r="L12">
-        <v>0.9716608934661114</v>
-      </c>
-      <c r="M12">
-        <v>0.9883541375495296</v>
+        <v>1.012876904566188</v>
       </c>
       <c r="N12">
-        <v>0.9779074759164741</v>
+        <v>1.020033722448486</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9448486800436663</v>
+        <v>0.9885760711054988</v>
       </c>
       <c r="D13">
-        <v>0.9778603519217983</v>
+        <v>1.009009026491249</v>
       </c>
       <c r="E13">
-        <v>0.9562359382975619</v>
-      </c>
-      <c r="F13">
-        <v>0.9733114539047665</v>
+        <v>0.9979424553081385</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02734067682711</v>
+        <v>1.03850473449003</v>
       </c>
       <c r="J13">
-        <v>0.9770835664007981</v>
+        <v>1.018777484950554</v>
       </c>
       <c r="K13">
-        <v>0.9933788631329545</v>
+        <v>1.023922178130485</v>
       </c>
       <c r="L13">
-        <v>0.9722054824209088</v>
-      </c>
-      <c r="M13">
-        <v>0.988922648666688</v>
+        <v>1.013065014268872</v>
       </c>
       <c r="N13">
-        <v>0.9784711371381388</v>
+        <v>1.020224265834594</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9471237697531876</v>
+        <v>0.9895484501942446</v>
       </c>
       <c r="D14">
-        <v>0.9796751582385457</v>
+        <v>1.009698130289881</v>
       </c>
       <c r="E14">
-        <v>0.9582023355345936</v>
-      </c>
-      <c r="F14">
-        <v>0.9753517152304375</v>
+        <v>0.9987162581171294</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028181697665661</v>
+        <v>1.038808781296986</v>
       </c>
       <c r="J14">
-        <v>0.9789136827379821</v>
+        <v>1.019398869439277</v>
       </c>
       <c r="K14">
-        <v>0.995008314469788</v>
+        <v>1.024456174725872</v>
       </c>
       <c r="L14">
-        <v>0.9739760913187753</v>
-      </c>
-      <c r="M14">
-        <v>0.9907715304914283</v>
+        <v>1.013679425307079</v>
       </c>
       <c r="N14">
-        <v>0.9803038524504392</v>
+        <v>1.020846532760566</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9485123648941159</v>
+        <v>0.9901451933745704</v>
       </c>
       <c r="D15">
-        <v>0.98078320987951</v>
+        <v>1.010121167399207</v>
       </c>
       <c r="E15">
-        <v>0.9594027372555828</v>
-      </c>
-      <c r="F15">
-        <v>0.9765975648512498</v>
+        <v>0.9991913371068754</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028694706008112</v>
+        <v>1.038995180608278</v>
       </c>
       <c r="J15">
-        <v>0.9800306671349311</v>
+        <v>1.01978016019324</v>
       </c>
       <c r="K15">
-        <v>0.9960028587019797</v>
+        <v>1.024783823003388</v>
       </c>
       <c r="L15">
-        <v>0.975056684260602</v>
-      </c>
-      <c r="M15">
-        <v>0.9919002676045484</v>
+        <v>1.014056507237507</v>
       </c>
       <c r="N15">
-        <v>0.9814224230933515</v>
+        <v>1.021228364991134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.956404180968743</v>
+        <v>0.9935830817120384</v>
       </c>
       <c r="D16">
-        <v>0.98708604298152</v>
+        <v>1.012560345210751</v>
       </c>
       <c r="E16">
-        <v>0.966227954623874</v>
-      </c>
-      <c r="F16">
-        <v>0.9836864048961496</v>
+        <v>1.001931291578404</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031605498141559</v>
+        <v>1.040066086526457</v>
       </c>
       <c r="J16">
-        <v>0.9863782896512719</v>
+        <v>1.021976019199449</v>
       </c>
       <c r="K16">
-        <v>1.001655067921782</v>
+        <v>1.026670439624984</v>
       </c>
       <c r="L16">
-        <v>0.9811964112719055</v>
-      </c>
-      <c r="M16">
-        <v>0.9983190238058371</v>
+        <v>1.016229187795995</v>
       </c>
       <c r="N16">
-        <v>0.9877790599617479</v>
+        <v>1.023427342369</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9611973890540532</v>
+        <v>0.9957092265376877</v>
       </c>
       <c r="D17">
-        <v>0.99091849404305</v>
+        <v>1.014070544927204</v>
       </c>
       <c r="E17">
-        <v>0.9703756550932474</v>
-      </c>
-      <c r="F17">
-        <v>0.987998721154759</v>
+        <v>1.003628357344784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033369030083535</v>
+        <v>1.040725745470043</v>
       </c>
       <c r="J17">
-        <v>0.9902329240137728</v>
+        <v>1.023333297315669</v>
       </c>
       <c r="K17">
-        <v>1.005087650946726</v>
+        <v>1.027836283743699</v>
       </c>
       <c r="L17">
-        <v>0.9849238398556894</v>
-      </c>
-      <c r="M17">
-        <v>1.00222050011376</v>
+        <v>1.017573066002495</v>
       </c>
       <c r="N17">
-        <v>0.9916391683471766</v>
+        <v>1.024786547975827</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9639404180314739</v>
+        <v>0.9969387544902706</v>
       </c>
       <c r="D18">
-        <v>0.9931131141896573</v>
+        <v>1.014944462243571</v>
       </c>
       <c r="E18">
-        <v>0.9727500032579338</v>
-      </c>
-      <c r="F18">
-        <v>0.9904688358244477</v>
+        <v>1.004610648389559</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034376608789593</v>
+        <v>1.041106253339027</v>
       </c>
       <c r="J18">
-        <v>0.9924385089115494</v>
+        <v>1.024117912935938</v>
       </c>
       <c r="K18">
-        <v>1.007051792655247</v>
+        <v>1.028510126243446</v>
       </c>
       <c r="L18">
-        <v>0.9870562910612303</v>
-      </c>
-      <c r="M18">
-        <v>1.004454143022407</v>
+        <v>1.018350267817629</v>
       </c>
       <c r="N18">
-        <v>0.9938478854284918</v>
+        <v>1.025572277840274</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9648671066032714</v>
+        <v>0.9973562205621472</v>
       </c>
       <c r="D19">
-        <v>0.9938547570856799</v>
+        <v>1.015241283000784</v>
       </c>
       <c r="E19">
-        <v>0.9735522531470053</v>
-      </c>
-      <c r="F19">
-        <v>0.991303698701822</v>
+        <v>1.004944318821107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034716717857773</v>
+        <v>1.041235283086639</v>
       </c>
       <c r="J19">
-        <v>0.9931835691524635</v>
+        <v>1.024384266364057</v>
       </c>
       <c r="K19">
-        <v>1.007715297208784</v>
+        <v>1.028738856587595</v>
       </c>
       <c r="L19">
-        <v>0.9877765870803493</v>
-      </c>
-      <c r="M19">
-        <v>1.00520888957715</v>
+        <v>1.018614160766008</v>
       </c>
       <c r="N19">
-        <v>0.9945940037404076</v>
+        <v>1.025839009520811</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.960688663002348</v>
+        <v>0.995482216499722</v>
       </c>
       <c r="D20">
-        <v>0.9905115878244066</v>
+        <v>1.013909238542091</v>
       </c>
       <c r="E20">
-        <v>0.9699353619529658</v>
-      </c>
-      <c r="F20">
-        <v>0.9875407926730532</v>
+        <v>1.003447066956288</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03318202788605</v>
+        <v>1.040655413094916</v>
       </c>
       <c r="J20">
-        <v>0.9898238452488323</v>
+        <v>1.023188408860971</v>
       </c>
       <c r="K20">
-        <v>1.004723356942286</v>
+        <v>1.027711841922947</v>
       </c>
       <c r="L20">
-        <v>0.9845282971736988</v>
-      </c>
-      <c r="M20">
-        <v>1.001806318178678</v>
+        <v>1.017429573451023</v>
       </c>
       <c r="N20">
-        <v>0.9912295086434676</v>
+        <v>1.024641453762905</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9464565812460509</v>
+        <v>0.9892626048106751</v>
       </c>
       <c r="D21">
-        <v>0.979142869036297</v>
+        <v>1.009495528881462</v>
       </c>
       <c r="E21">
-        <v>0.9576256276110773</v>
-      </c>
-      <c r="F21">
-        <v>0.974753269244763</v>
+        <v>0.9984887451224682</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027935125163163</v>
+        <v>1.038719442247018</v>
       </c>
       <c r="J21">
-        <v>0.9783769904310864</v>
+        <v>1.019216214322995</v>
       </c>
       <c r="K21">
-        <v>0.9945304612391923</v>
+        <v>1.024299211299486</v>
       </c>
       <c r="L21">
-        <v>0.9734568649561846</v>
-      </c>
-      <c r="M21">
-        <v>0.9902292720263124</v>
+        <v>1.013498805366224</v>
       </c>
       <c r="N21">
-        <v>0.9797663979789082</v>
+        <v>1.020663618253068</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9369435530854697</v>
+        <v>0.9852493572174181</v>
       </c>
       <c r="D22">
-        <v>0.9715608907611697</v>
+        <v>1.006653592087472</v>
       </c>
       <c r="E22">
-        <v>0.9494069923779024</v>
-      </c>
-      <c r="F22">
-        <v>0.9662315602181707</v>
+        <v>0.9952981736096771</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024413977696647</v>
+        <v>1.037461691056107</v>
       </c>
       <c r="J22">
-        <v>0.9707244468814181</v>
+        <v>1.01665090637535</v>
       </c>
       <c r="K22">
-        <v>0.9877175976460169</v>
+        <v>1.022094382399659</v>
       </c>
       <c r="L22">
-        <v>0.9660520520964702</v>
-      </c>
-      <c r="M22">
-        <v>0.9825030297003056</v>
+        <v>1.010963353600202</v>
       </c>
       <c r="N22">
-        <v>0.9721029869396399</v>
+        <v>1.018094667273892</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9420450637209479</v>
+        <v>0.987386953692845</v>
       </c>
       <c r="D23">
-        <v>0.9756250556005222</v>
+        <v>1.008166706864456</v>
       </c>
       <c r="E23">
-        <v>0.953813348322711</v>
-      </c>
-      <c r="F23">
-        <v>0.9707988551158507</v>
+        <v>0.9969967264410957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026303460112414</v>
+        <v>1.038132399686675</v>
       </c>
       <c r="J23">
-        <v>0.9748282563366736</v>
+        <v>1.018017468193904</v>
       </c>
       <c r="K23">
-        <v>0.9913709388949115</v>
+        <v>1.023268992754005</v>
       </c>
       <c r="L23">
-        <v>0.9700233094700684</v>
-      </c>
-      <c r="M23">
-        <v>0.9866450481878446</v>
+        <v>1.012313717417704</v>
       </c>
       <c r="N23">
-        <v>0.9762126242750356</v>
+        <v>1.019463169766976</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9609186965596322</v>
+        <v>0.9955848252975766</v>
       </c>
       <c r="D24">
-        <v>0.9906955765793249</v>
+        <v>1.0139821474085</v>
       </c>
       <c r="E24">
-        <v>0.9701344495724195</v>
-      </c>
-      <c r="F24">
-        <v>0.9877478497159843</v>
+        <v>1.003529007649616</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033266590876315</v>
+        <v>1.04068720640997</v>
       </c>
       <c r="J24">
-        <v>0.9900088217479964</v>
+        <v>1.023253899495723</v>
       </c>
       <c r="K24">
-        <v>1.004888082600478</v>
+        <v>1.027768090869574</v>
       </c>
       <c r="L24">
-        <v>0.9847071540352573</v>
-      </c>
-      <c r="M24">
-        <v>1.00199359832219</v>
+        <v>1.017494432096495</v>
       </c>
       <c r="N24">
-        <v>0.9914147478304776</v>
+        <v>1.02470703740187</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.980774812408142</v>
+        <v>1.004684504475683</v>
       </c>
       <c r="D25">
-        <v>1.006602561830945</v>
+        <v>1.020459517288606</v>
       </c>
       <c r="E25">
-        <v>0.9873318379552796</v>
-      </c>
-      <c r="F25">
-        <v>1.005664185248224</v>
+        <v>1.010814085004572</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040529750273501</v>
+        <v>1.043485708537405</v>
       </c>
       <c r="J25">
-        <v>1.005966966759367</v>
+        <v>1.029055238319091</v>
       </c>
       <c r="K25">
-        <v>1.01909923894152</v>
+        <v>1.032748315851728</v>
       </c>
       <c r="L25">
-        <v>1.000130046535814</v>
-      </c>
-      <c r="M25">
-        <v>1.018175203804156</v>
+        <v>1.023246814052461</v>
       </c>
       <c r="N25">
-        <v>1.007395555238189</v>
+        <v>1.03051661479179</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011642295641245</v>
+        <v>1.038396418900487</v>
       </c>
       <c r="D2">
-        <v>1.025427029900547</v>
+        <v>1.039620685560593</v>
       </c>
       <c r="E2">
-        <v>1.016409234754774</v>
+        <v>1.037056314358973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04559389700178</v>
+        <v>1.037963303409046</v>
       </c>
       <c r="J2">
-        <v>1.033480277520457</v>
+        <v>1.043494083145059</v>
       </c>
       <c r="K2">
-        <v>1.036543136564425</v>
+        <v>1.042405354590797</v>
       </c>
       <c r="L2">
-        <v>1.02764460004684</v>
+        <v>1.039848288949243</v>
       </c>
       <c r="N2">
-        <v>1.034947938056391</v>
+        <v>1.044975964433569</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016535066541173</v>
+        <v>1.03941153802151</v>
       </c>
       <c r="D3">
-        <v>1.028927433890688</v>
+        <v>1.040363030051888</v>
       </c>
       <c r="E3">
-        <v>1.020357025291193</v>
+        <v>1.037921293360791</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047057295582349</v>
+        <v>1.038210639212956</v>
       </c>
       <c r="J3">
-        <v>1.036584898316688</v>
+        <v>1.044153648859432</v>
       </c>
       <c r="K3">
-        <v>1.039203092745596</v>
+        <v>1.042958134089813</v>
       </c>
       <c r="L3">
-        <v>1.030735895004428</v>
+        <v>1.040522850538266</v>
       </c>
       <c r="N3">
-        <v>1.038056967770247</v>
+        <v>1.04563646680691</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019631816218268</v>
+        <v>1.040068507712754</v>
       </c>
       <c r="D4">
-        <v>1.03114584836014</v>
+        <v>1.040843442192237</v>
       </c>
       <c r="E4">
-        <v>1.022861461269673</v>
+        <v>1.038481451812584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047974416400111</v>
+        <v>1.038369553975853</v>
       </c>
       <c r="J4">
-        <v>1.038546329189816</v>
+        <v>1.044579961597173</v>
       </c>
       <c r="K4">
-        <v>1.04088235900739</v>
+        <v>1.0433152197141</v>
       </c>
       <c r="L4">
-        <v>1.032691581467237</v>
+        <v>1.040959157328005</v>
       </c>
       <c r="N4">
-        <v>1.040021184100195</v>
+        <v>1.046063384957637</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020917743888038</v>
+        <v>1.040344726103056</v>
       </c>
       <c r="D5">
-        <v>1.03206769082665</v>
+        <v>1.041045422223164</v>
       </c>
       <c r="E5">
-        <v>1.023902771258743</v>
+        <v>1.038717051488431</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048353029772809</v>
+        <v>1.038436091343087</v>
       </c>
       <c r="J5">
-        <v>1.039359922385662</v>
+        <v>1.044759070276224</v>
       </c>
       <c r="K5">
-        <v>1.041578603654113</v>
+        <v>1.04346519432889</v>
       </c>
       <c r="L5">
-        <v>1.033503433382104</v>
+        <v>1.041142537036599</v>
       </c>
       <c r="N5">
-        <v>1.040835932691699</v>
+        <v>1.046242747991557</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021132739153578</v>
+        <v>1.040391106037989</v>
       </c>
       <c r="D6">
-        <v>1.032221850622521</v>
+        <v>1.041079336397678</v>
       </c>
       <c r="E6">
-        <v>1.024076946201349</v>
+        <v>1.03875661608089</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048416198716042</v>
+        <v>1.038447247393526</v>
       </c>
       <c r="J6">
-        <v>1.03949589409149</v>
+        <v>1.044789136756702</v>
       </c>
       <c r="K6">
-        <v>1.041694945059558</v>
+        <v>1.043490367253785</v>
       </c>
       <c r="L6">
-        <v>1.033639151794218</v>
+        <v>1.041173324717005</v>
       </c>
       <c r="N6">
-        <v>1.040972097492946</v>
+        <v>1.046272857169885</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019649060705646</v>
+        <v>1.040072198445487</v>
       </c>
       <c r="D7">
-        <v>1.031158207938585</v>
+        <v>1.040846141002456</v>
       </c>
       <c r="E7">
-        <v>1.022875420158206</v>
+        <v>1.038484599479533</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047979502493388</v>
+        <v>1.038370444114322</v>
       </c>
       <c r="J7">
-        <v>1.038557243176882</v>
+        <v>1.044582355301624</v>
       </c>
       <c r="K7">
-        <v>1.040891700048538</v>
+        <v>1.043317224249554</v>
       </c>
       <c r="L7">
-        <v>1.032702469559842</v>
+        <v>1.040961607829042</v>
       </c>
       <c r="N7">
-        <v>1.040032113586375</v>
+        <v>1.046065782061423</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013310543501356</v>
+        <v>1.038739458165562</v>
       </c>
       <c r="D8">
-        <v>1.026619883340475</v>
+        <v>1.039871550205605</v>
       </c>
       <c r="E8">
-        <v>1.017754036084549</v>
+        <v>1.037348542459514</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046094745953435</v>
+        <v>1.038047125063452</v>
       </c>
       <c r="J8">
-        <v>1.034539556810521</v>
+        <v>1.043717083510509</v>
       </c>
       <c r="K8">
-        <v>1.03745095131573</v>
+        <v>1.042592292805682</v>
       </c>
       <c r="L8">
-        <v>1.028698770240839</v>
+        <v>1.040076297004542</v>
       </c>
       <c r="N8">
-        <v>1.036008721644538</v>
+        <v>1.045199281485117</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001581559823003</v>
+        <v>1.036391931012921</v>
       </c>
       <c r="D9">
-        <v>1.018248234761477</v>
+        <v>1.038154740561936</v>
       </c>
       <c r="E9">
-        <v>1.00832581876184</v>
+        <v>1.035350219933605</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04253631683075</v>
+        <v>1.03746877123346</v>
       </c>
       <c r="J9">
-        <v>1.027078592485115</v>
+        <v>1.042188787090197</v>
       </c>
       <c r="K9">
-        <v>1.031052025864586</v>
+        <v>1.041310305283455</v>
       </c>
       <c r="L9">
-        <v>1.021285244332667</v>
+        <v>1.038514918835396</v>
       </c>
       <c r="N9">
-        <v>1.028537161894005</v>
+        <v>1.04366881470859</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.993341347479309</v>
+        <v>1.034827556100441</v>
       </c>
       <c r="D10">
-        <v>1.012388723243956</v>
+        <v>1.037010620844664</v>
       </c>
       <c r="E10">
-        <v>1.001738465799014</v>
+        <v>1.034020445078015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039990955338187</v>
+        <v>1.03707742307684</v>
       </c>
       <c r="J10">
-        <v>1.021821664562823</v>
+        <v>1.041167550810085</v>
       </c>
       <c r="K10">
-        <v>1.026537841060675</v>
+        <v>1.040452612471672</v>
       </c>
       <c r="L10">
-        <v>1.016076402491479</v>
+        <v>1.037473131310368</v>
       </c>
       <c r="N10">
-        <v>1.023272768531086</v>
+        <v>1.042646128155822</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9896624978581776</v>
+        <v>1.034150319775399</v>
       </c>
       <c r="D11">
-        <v>1.009778971691545</v>
+        <v>1.036515315044365</v>
       </c>
       <c r="E11">
-        <v>0.9988070418904796</v>
+        <v>1.033445226682285</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038844416742521</v>
+        <v>1.036906598186426</v>
       </c>
       <c r="J11">
-        <v>1.019471743460829</v>
+        <v>1.04072478805316</v>
       </c>
       <c r="K11">
-        <v>1.024518797543466</v>
+        <v>1.040080509291741</v>
       </c>
       <c r="L11">
-        <v>1.013751490774949</v>
+        <v>1.037021827118311</v>
       </c>
       <c r="N11">
-        <v>1.020919510271587</v>
+        <v>1.042202736624997</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9882783505314258</v>
+        <v>1.033898786451952</v>
       </c>
       <c r="D12">
-        <v>1.008798094500872</v>
+        <v>1.036331353118047</v>
       </c>
       <c r="E12">
-        <v>0.9977056153608416</v>
+        <v>1.033231653281958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038411565572565</v>
+        <v>1.036842940872147</v>
       </c>
       <c r="J12">
-        <v>1.018587211774181</v>
+        <v>1.040560242460601</v>
       </c>
       <c r="K12">
-        <v>1.023758655987573</v>
+        <v>1.039942186458222</v>
       </c>
       <c r="L12">
-        <v>1.012876904566188</v>
+        <v>1.036854162633594</v>
       </c>
       <c r="N12">
-        <v>1.020033722448486</v>
+        <v>1.042037957358823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9885760711054988</v>
+        <v>1.033952740188065</v>
       </c>
       <c r="D13">
-        <v>1.009009026491249</v>
+        <v>1.036370812806503</v>
       </c>
       <c r="E13">
-        <v>0.9979424553081385</v>
+        <v>1.033277461492454</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03850473449003</v>
+        <v>1.036856604870111</v>
       </c>
       <c r="J13">
-        <v>1.018777484950554</v>
+        <v>1.040595541833245</v>
       </c>
       <c r="K13">
-        <v>1.023922178130485</v>
+        <v>1.039971862015948</v>
       </c>
       <c r="L13">
-        <v>1.013065014268872</v>
+        <v>1.036890128584332</v>
       </c>
       <c r="N13">
-        <v>1.020224265834594</v>
+        <v>1.042073306860626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9895484501942446</v>
+        <v>1.034129527494746</v>
       </c>
       <c r="D14">
-        <v>1.009698130289881</v>
+        <v>1.036500108348603</v>
       </c>
       <c r="E14">
-        <v>0.9987162581171294</v>
+        <v>1.033427570832279</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038808781296986</v>
+        <v>1.03690134044038</v>
       </c>
       <c r="J14">
-        <v>1.019398869439277</v>
+        <v>1.040711188369849</v>
       </c>
       <c r="K14">
-        <v>1.024456174725872</v>
+        <v>1.040069077665961</v>
       </c>
       <c r="L14">
-        <v>1.013679425307079</v>
+        <v>1.037007968528883</v>
       </c>
       <c r="N14">
-        <v>1.020846532760566</v>
+        <v>1.042189117628576</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9901451933745704</v>
+        <v>1.034238454961074</v>
       </c>
       <c r="D15">
-        <v>1.010121167399207</v>
+        <v>1.036579773837525</v>
       </c>
       <c r="E15">
-        <v>0.9991913371068754</v>
+        <v>1.033520069876935</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038995180608278</v>
+        <v>1.036928876299597</v>
       </c>
       <c r="J15">
-        <v>1.01978016019324</v>
+        <v>1.040782430928257</v>
       </c>
       <c r="K15">
-        <v>1.024783823003388</v>
+        <v>1.040128961253905</v>
       </c>
       <c r="L15">
-        <v>1.014056507237507</v>
+        <v>1.0370805696468</v>
       </c>
       <c r="N15">
-        <v>1.021228364991134</v>
+        <v>1.042260461359589</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9935830817120384</v>
+        <v>1.034872505179979</v>
       </c>
       <c r="D16">
-        <v>1.012560345210751</v>
+        <v>1.037043494955556</v>
       </c>
       <c r="E16">
-        <v>1.001931291578404</v>
+        <v>1.034058632773442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040066086526457</v>
+        <v>1.037088731350992</v>
       </c>
       <c r="J16">
-        <v>1.021976019199449</v>
+        <v>1.041196923740924</v>
       </c>
       <c r="K16">
-        <v>1.026670439624984</v>
+        <v>1.040477292680928</v>
       </c>
       <c r="L16">
-        <v>1.016229187795995</v>
+        <v>1.037503078645048</v>
       </c>
       <c r="N16">
-        <v>1.023427342369</v>
+        <v>1.042675542799592</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9957092265376877</v>
+        <v>1.035270267925458</v>
       </c>
       <c r="D17">
-        <v>1.014070544927204</v>
+        <v>1.037334403822521</v>
       </c>
       <c r="E17">
-        <v>1.003628357344784</v>
+        <v>1.034396615636612</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040725745470043</v>
+        <v>1.037188637987529</v>
       </c>
       <c r="J17">
-        <v>1.023333297315669</v>
+        <v>1.041456774331181</v>
       </c>
       <c r="K17">
-        <v>1.027836283743699</v>
+        <v>1.040695600303694</v>
       </c>
       <c r="L17">
-        <v>1.017573066002495</v>
+        <v>1.037768053319139</v>
       </c>
       <c r="N17">
-        <v>1.024786547975827</v>
+        <v>1.042935762407493</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9969387544902706</v>
+        <v>1.035502290509566</v>
       </c>
       <c r="D18">
-        <v>1.014944462243571</v>
+        <v>1.037504096174376</v>
       </c>
       <c r="E18">
-        <v>1.004610648389559</v>
+        <v>1.034593811512819</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041106253339027</v>
+        <v>1.037246779774598</v>
       </c>
       <c r="J18">
-        <v>1.024117912935938</v>
+        <v>1.041608286653747</v>
       </c>
       <c r="K18">
-        <v>1.028510126243446</v>
+        <v>1.040822866277634</v>
       </c>
       <c r="L18">
-        <v>1.018350267817629</v>
+        <v>1.03792258891046</v>
       </c>
       <c r="N18">
-        <v>1.025572277840274</v>
+        <v>1.043087489894935</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9973562205621472</v>
+        <v>1.035581406637516</v>
       </c>
       <c r="D19">
-        <v>1.015241283000784</v>
+        <v>1.037561958574075</v>
       </c>
       <c r="E19">
-        <v>1.004944318821107</v>
+        <v>1.034661059718616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041235283086639</v>
+        <v>1.037266582213094</v>
       </c>
       <c r="J19">
-        <v>1.024384266364057</v>
+        <v>1.041659939245188</v>
       </c>
       <c r="K19">
-        <v>1.028738856587595</v>
+        <v>1.040866248938241</v>
       </c>
       <c r="L19">
-        <v>1.018614160766008</v>
+        <v>1.037975278203827</v>
       </c>
       <c r="N19">
-        <v>1.025839009520811</v>
+        <v>1.043139215838981</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.995482216499722</v>
+        <v>1.035227590266761</v>
       </c>
       <c r="D20">
-        <v>1.013909238542091</v>
+        <v>1.037303191000171</v>
       </c>
       <c r="E20">
-        <v>1.003447066956288</v>
+        <v>1.034360347456521</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040655413094916</v>
+        <v>1.037177932608958</v>
       </c>
       <c r="J20">
-        <v>1.023188408860971</v>
+        <v>1.041428900417702</v>
       </c>
       <c r="K20">
-        <v>1.027711841922947</v>
+        <v>1.040672185112575</v>
       </c>
       <c r="L20">
-        <v>1.017429573451023</v>
+        <v>1.037739626073207</v>
       </c>
       <c r="N20">
-        <v>1.024641453762905</v>
+        <v>1.04290784890986</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9892626048106751</v>
+        <v>1.034077467419894</v>
       </c>
       <c r="D21">
-        <v>1.009495528881462</v>
+        <v>1.036462033566298</v>
       </c>
       <c r="E21">
-        <v>0.9984887451224682</v>
+        <v>1.033383364928893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038719442247018</v>
+        <v>1.036888172596296</v>
       </c>
       <c r="J21">
-        <v>1.019216214322995</v>
+        <v>1.040677135656652</v>
       </c>
       <c r="K21">
-        <v>1.024299211299486</v>
+        <v>1.040040453033717</v>
       </c>
       <c r="L21">
-        <v>1.013498805366224</v>
+        <v>1.036973268426535</v>
       </c>
       <c r="N21">
-        <v>1.020663618253068</v>
+        <v>1.04215501655662</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9852493572174181</v>
+        <v>1.033354469206668</v>
       </c>
       <c r="D22">
-        <v>1.006653592087472</v>
+        <v>1.035933261545139</v>
       </c>
       <c r="E22">
-        <v>0.9952981736096771</v>
+        <v>1.032769608620865</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037461691056107</v>
+        <v>1.036704801051549</v>
       </c>
       <c r="J22">
-        <v>1.01665090637535</v>
+        <v>1.040203986750297</v>
       </c>
       <c r="K22">
-        <v>1.022094382399659</v>
+        <v>1.039642638347543</v>
       </c>
       <c r="L22">
-        <v>1.010963353600202</v>
+        <v>1.036491255572686</v>
       </c>
       <c r="N22">
-        <v>1.018094667273892</v>
+        <v>1.041681195724547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.987386953692845</v>
+        <v>1.033737731908398</v>
       </c>
       <c r="D23">
-        <v>1.008166706864456</v>
+        <v>1.036213564120275</v>
       </c>
       <c r="E23">
-        <v>0.9969967264410957</v>
+        <v>1.033094923728712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038132399686675</v>
+        <v>1.036802122289192</v>
       </c>
       <c r="J23">
-        <v>1.018017468193904</v>
+        <v>1.040454857718603</v>
       </c>
       <c r="K23">
-        <v>1.023268992754005</v>
+        <v>1.039853586006622</v>
       </c>
       <c r="L23">
-        <v>1.012313717417704</v>
+        <v>1.036746795963414</v>
       </c>
       <c r="N23">
-        <v>1.019463169766976</v>
+        <v>1.041932422958403</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9955848252975766</v>
+        <v>1.035246874419378</v>
       </c>
       <c r="D24">
-        <v>1.0139821474085</v>
+        <v>1.037317294699787</v>
       </c>
       <c r="E24">
-        <v>1.003529007649616</v>
+        <v>1.03437673531236</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04068720640997</v>
+        <v>1.037182770316772</v>
       </c>
       <c r="J24">
-        <v>1.023253899495723</v>
+        <v>1.041441495606614</v>
       </c>
       <c r="K24">
-        <v>1.027768090869574</v>
+        <v>1.040682765643264</v>
       </c>
       <c r="L24">
-        <v>1.017494432096495</v>
+        <v>1.037752471182726</v>
       </c>
       <c r="N24">
-        <v>1.02470703740187</v>
+        <v>1.042920461985385</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004684504475683</v>
+        <v>1.036998710931856</v>
       </c>
       <c r="D25">
-        <v>1.020459517288606</v>
+        <v>1.038598506945254</v>
       </c>
       <c r="E25">
-        <v>1.010814085004572</v>
+        <v>1.035866407762013</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043485708537405</v>
+        <v>1.037619309577154</v>
       </c>
       <c r="J25">
-        <v>1.029055238319091</v>
+        <v>1.042584308842241</v>
       </c>
       <c r="K25">
-        <v>1.032748315851728</v>
+        <v>1.04164226721168</v>
       </c>
       <c r="L25">
-        <v>1.023246814052461</v>
+        <v>1.038918728359526</v>
       </c>
       <c r="N25">
-        <v>1.03051661479179</v>
+        <v>1.044064898146888</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038396418900487</v>
+        <v>1.011642295641245</v>
       </c>
       <c r="D2">
-        <v>1.039620685560593</v>
+        <v>1.025427029900547</v>
       </c>
       <c r="E2">
-        <v>1.037056314358973</v>
+        <v>1.016409234754774</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037963303409046</v>
+        <v>1.04559389700178</v>
       </c>
       <c r="J2">
-        <v>1.043494083145059</v>
+        <v>1.033480277520457</v>
       </c>
       <c r="K2">
-        <v>1.042405354590797</v>
+        <v>1.036543136564424</v>
       </c>
       <c r="L2">
-        <v>1.039848288949243</v>
+        <v>1.02764460004684</v>
       </c>
       <c r="N2">
-        <v>1.044975964433569</v>
+        <v>1.034947938056391</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03941153802151</v>
+        <v>1.016535066541172</v>
       </c>
       <c r="D3">
-        <v>1.040363030051888</v>
+        <v>1.028927433890688</v>
       </c>
       <c r="E3">
-        <v>1.037921293360791</v>
+        <v>1.020357025291192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038210639212956</v>
+        <v>1.047057295582348</v>
       </c>
       <c r="J3">
-        <v>1.044153648859432</v>
+        <v>1.036584898316687</v>
       </c>
       <c r="K3">
-        <v>1.042958134089813</v>
+        <v>1.039203092745595</v>
       </c>
       <c r="L3">
-        <v>1.040522850538266</v>
+        <v>1.030735895004427</v>
       </c>
       <c r="N3">
-        <v>1.04563646680691</v>
+        <v>1.038056967770246</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040068507712754</v>
+        <v>1.019631816218268</v>
       </c>
       <c r="D4">
-        <v>1.040843442192237</v>
+        <v>1.03114584836014</v>
       </c>
       <c r="E4">
-        <v>1.038481451812584</v>
+        <v>1.022861461269673</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038369553975853</v>
+        <v>1.047974416400111</v>
       </c>
       <c r="J4">
-        <v>1.044579961597173</v>
+        <v>1.038546329189816</v>
       </c>
       <c r="K4">
-        <v>1.0433152197141</v>
+        <v>1.04088235900739</v>
       </c>
       <c r="L4">
-        <v>1.040959157328005</v>
+        <v>1.032691581467237</v>
       </c>
       <c r="N4">
-        <v>1.046063384957637</v>
+        <v>1.040021184100195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040344726103056</v>
+        <v>1.020917743888039</v>
       </c>
       <c r="D5">
-        <v>1.041045422223164</v>
+        <v>1.03206769082665</v>
       </c>
       <c r="E5">
-        <v>1.038717051488431</v>
+        <v>1.023902771258743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038436091343087</v>
+        <v>1.048353029772809</v>
       </c>
       <c r="J5">
-        <v>1.044759070276224</v>
+        <v>1.039359922385662</v>
       </c>
       <c r="K5">
-        <v>1.04346519432889</v>
+        <v>1.041578603654113</v>
       </c>
       <c r="L5">
-        <v>1.041142537036599</v>
+        <v>1.033503433382104</v>
       </c>
       <c r="N5">
-        <v>1.046242747991557</v>
+        <v>1.040835932691699</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040391106037989</v>
+        <v>1.021132739153577</v>
       </c>
       <c r="D6">
-        <v>1.041079336397678</v>
+        <v>1.03222185062252</v>
       </c>
       <c r="E6">
-        <v>1.03875661608089</v>
+        <v>1.024076946201348</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038447247393526</v>
+        <v>1.048416198716042</v>
       </c>
       <c r="J6">
-        <v>1.044789136756702</v>
+        <v>1.039495894091489</v>
       </c>
       <c r="K6">
-        <v>1.043490367253785</v>
+        <v>1.041694945059557</v>
       </c>
       <c r="L6">
-        <v>1.041173324717005</v>
+        <v>1.033639151794217</v>
       </c>
       <c r="N6">
-        <v>1.046272857169885</v>
+        <v>1.040972097492945</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040072198445487</v>
+        <v>1.019649060705646</v>
       </c>
       <c r="D7">
-        <v>1.040846141002456</v>
+        <v>1.031158207938585</v>
       </c>
       <c r="E7">
-        <v>1.038484599479533</v>
+        <v>1.022875420158206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038370444114322</v>
+        <v>1.047979502493388</v>
       </c>
       <c r="J7">
-        <v>1.044582355301624</v>
+        <v>1.038557243176883</v>
       </c>
       <c r="K7">
-        <v>1.043317224249554</v>
+        <v>1.040891700048538</v>
       </c>
       <c r="L7">
-        <v>1.040961607829042</v>
+        <v>1.032702469559842</v>
       </c>
       <c r="N7">
-        <v>1.046065782061423</v>
+        <v>1.040032113586374</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038739458165562</v>
+        <v>1.013310543501356</v>
       </c>
       <c r="D8">
-        <v>1.039871550205605</v>
+        <v>1.026619883340475</v>
       </c>
       <c r="E8">
-        <v>1.037348542459514</v>
+        <v>1.017754036084549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038047125063452</v>
+        <v>1.046094745953434</v>
       </c>
       <c r="J8">
-        <v>1.043717083510509</v>
+        <v>1.034539556810521</v>
       </c>
       <c r="K8">
-        <v>1.042592292805682</v>
+        <v>1.03745095131573</v>
       </c>
       <c r="L8">
-        <v>1.040076297004542</v>
+        <v>1.028698770240839</v>
       </c>
       <c r="N8">
-        <v>1.045199281485117</v>
+        <v>1.036008721644538</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036391931012921</v>
+        <v>1.001581559823003</v>
       </c>
       <c r="D9">
-        <v>1.038154740561936</v>
+        <v>1.018248234761477</v>
       </c>
       <c r="E9">
-        <v>1.035350219933605</v>
+        <v>1.008325818761841</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03746877123346</v>
+        <v>1.04253631683075</v>
       </c>
       <c r="J9">
-        <v>1.042188787090197</v>
+        <v>1.027078592485115</v>
       </c>
       <c r="K9">
-        <v>1.041310305283455</v>
+        <v>1.031052025864586</v>
       </c>
       <c r="L9">
-        <v>1.038514918835396</v>
+        <v>1.021285244332668</v>
       </c>
       <c r="N9">
-        <v>1.04366881470859</v>
+        <v>1.028537161894005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034827556100441</v>
+        <v>0.993341347479308</v>
       </c>
       <c r="D10">
-        <v>1.037010620844664</v>
+        <v>1.012388723243956</v>
       </c>
       <c r="E10">
-        <v>1.034020445078015</v>
+        <v>1.001738465799013</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03707742307684</v>
+        <v>1.039990955338187</v>
       </c>
       <c r="J10">
-        <v>1.041167550810085</v>
+        <v>1.021821664562822</v>
       </c>
       <c r="K10">
-        <v>1.040452612471672</v>
+        <v>1.026537841060674</v>
       </c>
       <c r="L10">
-        <v>1.037473131310368</v>
+        <v>1.016076402491477</v>
       </c>
       <c r="N10">
-        <v>1.042646128155822</v>
+        <v>1.023272768531084</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034150319775399</v>
+        <v>0.9896624978581764</v>
       </c>
       <c r="D11">
-        <v>1.036515315044365</v>
+        <v>1.009778971691544</v>
       </c>
       <c r="E11">
-        <v>1.033445226682285</v>
+        <v>0.9988070418904784</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036906598186426</v>
+        <v>1.038844416742521</v>
       </c>
       <c r="J11">
-        <v>1.04072478805316</v>
+        <v>1.019471743460828</v>
       </c>
       <c r="K11">
-        <v>1.040080509291741</v>
+        <v>1.024518797543465</v>
       </c>
       <c r="L11">
-        <v>1.037021827118311</v>
+        <v>1.013751490774948</v>
       </c>
       <c r="N11">
-        <v>1.042202736624997</v>
+        <v>1.020919510271586</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033898786451952</v>
+        <v>0.9882783505314251</v>
       </c>
       <c r="D12">
-        <v>1.036331353118047</v>
+        <v>1.008798094500872</v>
       </c>
       <c r="E12">
-        <v>1.033231653281958</v>
+        <v>0.9977056153608408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036842940872147</v>
+        <v>1.038411565572565</v>
       </c>
       <c r="J12">
-        <v>1.040560242460601</v>
+        <v>1.018587211774179</v>
       </c>
       <c r="K12">
-        <v>1.039942186458222</v>
+        <v>1.023758655987573</v>
       </c>
       <c r="L12">
-        <v>1.036854162633594</v>
+        <v>1.012876904566187</v>
       </c>
       <c r="N12">
-        <v>1.042037957358823</v>
+        <v>1.020033722448485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033952740188065</v>
+        <v>0.9885760711054976</v>
       </c>
       <c r="D13">
-        <v>1.036370812806503</v>
+        <v>1.009009026491248</v>
       </c>
       <c r="E13">
-        <v>1.033277461492454</v>
+        <v>0.9979424553081372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036856604870111</v>
+        <v>1.038504734490029</v>
       </c>
       <c r="J13">
-        <v>1.040595541833245</v>
+        <v>1.018777484950553</v>
       </c>
       <c r="K13">
-        <v>1.039971862015948</v>
+        <v>1.023922178130484</v>
       </c>
       <c r="L13">
-        <v>1.036890128584332</v>
+        <v>1.013065014268871</v>
       </c>
       <c r="N13">
-        <v>1.042073306860626</v>
+        <v>1.020224265834593</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034129527494746</v>
+        <v>0.9895484501942456</v>
       </c>
       <c r="D14">
-        <v>1.036500108348603</v>
+        <v>1.009698130289882</v>
       </c>
       <c r="E14">
-        <v>1.033427570832279</v>
+        <v>0.9987162581171304</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03690134044038</v>
+        <v>1.038808781296987</v>
       </c>
       <c r="J14">
-        <v>1.040711188369849</v>
+        <v>1.019398869439279</v>
       </c>
       <c r="K14">
-        <v>1.040069077665961</v>
+        <v>1.024456174725873</v>
       </c>
       <c r="L14">
-        <v>1.037007968528883</v>
+        <v>1.01367942530708</v>
       </c>
       <c r="N14">
-        <v>1.042189117628576</v>
+        <v>1.020846532760567</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034238454961074</v>
+        <v>0.9901451933745714</v>
       </c>
       <c r="D15">
-        <v>1.036579773837525</v>
+        <v>1.010121167399208</v>
       </c>
       <c r="E15">
-        <v>1.033520069876935</v>
+        <v>0.9991913371068764</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036928876299597</v>
+        <v>1.038995180608278</v>
       </c>
       <c r="J15">
-        <v>1.040782430928257</v>
+        <v>1.019780160193241</v>
       </c>
       <c r="K15">
-        <v>1.040128961253905</v>
+        <v>1.024783823003389</v>
       </c>
       <c r="L15">
-        <v>1.0370805696468</v>
+        <v>1.014056507237508</v>
       </c>
       <c r="N15">
-        <v>1.042260461359589</v>
+        <v>1.021228364991135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034872505179979</v>
+        <v>0.9935830817120374</v>
       </c>
       <c r="D16">
-        <v>1.037043494955556</v>
+        <v>1.01256034521075</v>
       </c>
       <c r="E16">
-        <v>1.034058632773442</v>
+        <v>1.001931291578403</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037088731350992</v>
+        <v>1.040066086526457</v>
       </c>
       <c r="J16">
-        <v>1.041196923740924</v>
+        <v>1.021976019199448</v>
       </c>
       <c r="K16">
-        <v>1.040477292680928</v>
+        <v>1.026670439624983</v>
       </c>
       <c r="L16">
-        <v>1.037503078645048</v>
+        <v>1.016229187795994</v>
       </c>
       <c r="N16">
-        <v>1.042675542799592</v>
+        <v>1.023427342368999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035270267925458</v>
+        <v>0.9957092265376876</v>
       </c>
       <c r="D17">
-        <v>1.037334403822521</v>
+        <v>1.014070544927204</v>
       </c>
       <c r="E17">
-        <v>1.034396615636612</v>
+        <v>1.003628357344783</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037188637987529</v>
+        <v>1.040725745470043</v>
       </c>
       <c r="J17">
-        <v>1.041456774331181</v>
+        <v>1.023333297315669</v>
       </c>
       <c r="K17">
-        <v>1.040695600303694</v>
+        <v>1.027836283743699</v>
       </c>
       <c r="L17">
-        <v>1.037768053319139</v>
+        <v>1.017573066002495</v>
       </c>
       <c r="N17">
-        <v>1.042935762407493</v>
+        <v>1.024786547975827</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035502290509566</v>
+        <v>0.9969387544902706</v>
       </c>
       <c r="D18">
-        <v>1.037504096174376</v>
+        <v>1.014944462243571</v>
       </c>
       <c r="E18">
-        <v>1.034593811512819</v>
+        <v>1.004610648389559</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037246779774598</v>
+        <v>1.041106253339027</v>
       </c>
       <c r="J18">
-        <v>1.041608286653747</v>
+        <v>1.024117912935938</v>
       </c>
       <c r="K18">
-        <v>1.040822866277634</v>
+        <v>1.028510126243446</v>
       </c>
       <c r="L18">
-        <v>1.03792258891046</v>
+        <v>1.018350267817629</v>
       </c>
       <c r="N18">
-        <v>1.043087489894935</v>
+        <v>1.025572277840274</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035581406637516</v>
+        <v>0.9973562205621476</v>
       </c>
       <c r="D19">
-        <v>1.037561958574075</v>
+        <v>1.015241283000784</v>
       </c>
       <c r="E19">
-        <v>1.034661059718616</v>
+        <v>1.004944318821107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037266582213094</v>
+        <v>1.041235283086639</v>
       </c>
       <c r="J19">
-        <v>1.041659939245188</v>
+        <v>1.024384266364057</v>
       </c>
       <c r="K19">
-        <v>1.040866248938241</v>
+        <v>1.028738856587595</v>
       </c>
       <c r="L19">
-        <v>1.037975278203827</v>
+        <v>1.018614160766008</v>
       </c>
       <c r="N19">
-        <v>1.043139215838981</v>
+        <v>1.025839009520812</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035227590266761</v>
+        <v>0.9954822164997218</v>
       </c>
       <c r="D20">
-        <v>1.037303191000171</v>
+        <v>1.013909238542091</v>
       </c>
       <c r="E20">
-        <v>1.034360347456521</v>
+        <v>1.003447066956288</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037177932608958</v>
+        <v>1.040655413094916</v>
       </c>
       <c r="J20">
-        <v>1.041428900417702</v>
+        <v>1.023188408860971</v>
       </c>
       <c r="K20">
-        <v>1.040672185112575</v>
+        <v>1.027711841922947</v>
       </c>
       <c r="L20">
-        <v>1.037739626073207</v>
+        <v>1.017429573451023</v>
       </c>
       <c r="N20">
-        <v>1.04290784890986</v>
+        <v>1.024641453762905</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034077467419894</v>
+        <v>0.9892626048106724</v>
       </c>
       <c r="D21">
-        <v>1.036462033566298</v>
+        <v>1.00949552888146</v>
       </c>
       <c r="E21">
-        <v>1.033383364928893</v>
+        <v>0.998488745122466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036888172596296</v>
+        <v>1.038719442247017</v>
       </c>
       <c r="J21">
-        <v>1.040677135656652</v>
+        <v>1.019216214322993</v>
       </c>
       <c r="K21">
-        <v>1.040040453033717</v>
+        <v>1.024299211299483</v>
       </c>
       <c r="L21">
-        <v>1.036973268426535</v>
+        <v>1.013498805366222</v>
       </c>
       <c r="N21">
-        <v>1.04215501655662</v>
+        <v>1.020663618253065</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033354469206668</v>
+        <v>0.985249357217418</v>
       </c>
       <c r="D22">
-        <v>1.035933261545139</v>
+        <v>1.006653592087472</v>
       </c>
       <c r="E22">
-        <v>1.032769608620865</v>
+        <v>0.995298173609677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036704801051549</v>
+        <v>1.037461691056107</v>
       </c>
       <c r="J22">
-        <v>1.040203986750297</v>
+        <v>1.01665090637535</v>
       </c>
       <c r="K22">
-        <v>1.039642638347543</v>
+        <v>1.022094382399658</v>
       </c>
       <c r="L22">
-        <v>1.036491255572686</v>
+        <v>1.010963353600201</v>
       </c>
       <c r="N22">
-        <v>1.041681195724547</v>
+        <v>1.018094667273892</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033737731908398</v>
+        <v>0.9873869536928446</v>
       </c>
       <c r="D23">
-        <v>1.036213564120275</v>
+        <v>1.008166706864456</v>
       </c>
       <c r="E23">
-        <v>1.033094923728712</v>
+        <v>0.9969967264410954</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036802122289192</v>
+        <v>1.038132399686674</v>
       </c>
       <c r="J23">
-        <v>1.040454857718603</v>
+        <v>1.018017468193904</v>
       </c>
       <c r="K23">
-        <v>1.039853586006622</v>
+        <v>1.023268992754005</v>
       </c>
       <c r="L23">
-        <v>1.036746795963414</v>
+        <v>1.012313717417703</v>
       </c>
       <c r="N23">
-        <v>1.041932422958403</v>
+        <v>1.019463169766975</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035246874419378</v>
+        <v>0.9955848252975764</v>
       </c>
       <c r="D24">
-        <v>1.037317294699787</v>
+        <v>1.0139821474085</v>
       </c>
       <c r="E24">
-        <v>1.03437673531236</v>
+        <v>1.003529007649616</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037182770316772</v>
+        <v>1.04068720640997</v>
       </c>
       <c r="J24">
-        <v>1.041441495606614</v>
+        <v>1.023253899495723</v>
       </c>
       <c r="K24">
-        <v>1.040682765643264</v>
+        <v>1.027768090869574</v>
       </c>
       <c r="L24">
-        <v>1.037752471182726</v>
+        <v>1.017494432096495</v>
       </c>
       <c r="N24">
-        <v>1.042920461985385</v>
+        <v>1.024707037401869</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036998710931856</v>
+        <v>1.004684504475683</v>
       </c>
       <c r="D25">
-        <v>1.038598506945254</v>
+        <v>1.020459517288606</v>
       </c>
       <c r="E25">
-        <v>1.035866407762013</v>
+        <v>1.010814085004573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037619309577154</v>
+        <v>1.043485708537406</v>
       </c>
       <c r="J25">
-        <v>1.042584308842241</v>
+        <v>1.029055238319092</v>
       </c>
       <c r="K25">
-        <v>1.04164226721168</v>
+        <v>1.032748315851729</v>
       </c>
       <c r="L25">
-        <v>1.038918728359526</v>
+        <v>1.023246814052462</v>
       </c>
       <c r="N25">
-        <v>1.044064898146888</v>
+        <v>1.03051661479179</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011642295641245</v>
+        <v>1.000686273046259</v>
       </c>
       <c r="D2">
-        <v>1.025427029900547</v>
+        <v>1.02554399267156</v>
       </c>
       <c r="E2">
-        <v>1.016409234754774</v>
+        <v>1.006923753216378</v>
+      </c>
+      <c r="F2">
+        <v>1.031708829245882</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04559389700178</v>
+        <v>1.049481075405777</v>
       </c>
       <c r="J2">
-        <v>1.033480277520457</v>
+        <v>1.022846477161106</v>
       </c>
       <c r="K2">
-        <v>1.036543136564424</v>
+        <v>1.036658569788023</v>
       </c>
       <c r="L2">
-        <v>1.02764460004684</v>
+        <v>1.018287464609635</v>
+      </c>
+      <c r="M2">
+        <v>1.042743401474323</v>
       </c>
       <c r="N2">
-        <v>1.034947938056391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011204845030636</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042400923226343</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036991043813455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016535066541172</v>
+        <v>1.005294805064333</v>
       </c>
       <c r="D3">
-        <v>1.028927433890688</v>
+        <v>1.028604112596623</v>
       </c>
       <c r="E3">
-        <v>1.020357025291192</v>
+        <v>1.010621077020029</v>
+      </c>
+      <c r="F3">
+        <v>1.034731247269237</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047057295582348</v>
+        <v>1.050541903016477</v>
       </c>
       <c r="J3">
-        <v>1.036584898316687</v>
+        <v>1.025642161738743</v>
       </c>
       <c r="K3">
-        <v>1.039203092745595</v>
+        <v>1.038883626402777</v>
       </c>
       <c r="L3">
-        <v>1.030735895004427</v>
+        <v>1.02111983921874</v>
+      </c>
+      <c r="M3">
+        <v>1.044938214686131</v>
       </c>
       <c r="N3">
-        <v>1.038056967770246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012174440101305</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044137964086086</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038561691295526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019631816218268</v>
+        <v>1.008216339430339</v>
       </c>
       <c r="D4">
-        <v>1.03114584836014</v>
+        <v>1.030546530082764</v>
       </c>
       <c r="E4">
-        <v>1.022861461269673</v>
+        <v>1.012971019035834</v>
+      </c>
+      <c r="F4">
+        <v>1.036655139346421</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047974416400111</v>
+        <v>1.051200424425289</v>
       </c>
       <c r="J4">
-        <v>1.038546329189816</v>
+        <v>1.027412180243798</v>
       </c>
       <c r="K4">
-        <v>1.04088235900739</v>
+        <v>1.040289750555169</v>
       </c>
       <c r="L4">
-        <v>1.032691581467237</v>
+        <v>1.022915375907545</v>
+      </c>
+      <c r="M4">
+        <v>1.046330416102542</v>
       </c>
       <c r="N4">
-        <v>1.040021184100195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01278808668172</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045239791808397</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039556842379521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020917743888039</v>
+        <v>1.0094348917865</v>
       </c>
       <c r="D5">
-        <v>1.03206769082665</v>
+        <v>1.031358953280397</v>
       </c>
       <c r="E5">
-        <v>1.023902771258743</v>
+        <v>1.013953253205021</v>
+      </c>
+      <c r="F5">
+        <v>1.037459866111663</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048353029772809</v>
+        <v>1.051473041763346</v>
       </c>
       <c r="J5">
-        <v>1.039359922385662</v>
+        <v>1.028151450654294</v>
       </c>
       <c r="K5">
-        <v>1.041578603654113</v>
+        <v>1.040877587457749</v>
       </c>
       <c r="L5">
-        <v>1.033503433382104</v>
+        <v>1.023665689496269</v>
+      </c>
+      <c r="M5">
+        <v>1.046912457231896</v>
       </c>
       <c r="N5">
-        <v>1.040835932691699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013045251893923</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045700435189843</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039979664598893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021132739153577</v>
+        <v>1.009643928740097</v>
       </c>
       <c r="D6">
-        <v>1.03222185062252</v>
+        <v>1.031500438558469</v>
       </c>
       <c r="E6">
-        <v>1.024076946201348</v>
+        <v>1.014122656834991</v>
+      </c>
+      <c r="F6">
+        <v>1.037598579577381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048416198716042</v>
+        <v>1.051521274294881</v>
       </c>
       <c r="J6">
-        <v>1.039495894091489</v>
+        <v>1.02828017019523</v>
       </c>
       <c r="K6">
-        <v>1.041694945059557</v>
+        <v>1.040981356074438</v>
       </c>
       <c r="L6">
-        <v>1.033639151794217</v>
+        <v>1.023796164230708</v>
+      </c>
+      <c r="M6">
+        <v>1.047013787905698</v>
       </c>
       <c r="N6">
-        <v>1.040972097492945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013091154251324</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045780631046594</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040061781867867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019649060705646</v>
+        <v>1.008246810759995</v>
       </c>
       <c r="D7">
-        <v>1.031158207938585</v>
+        <v>1.03057241452631</v>
       </c>
       <c r="E7">
-        <v>1.022875420158206</v>
+        <v>1.012997819663022</v>
+      </c>
+      <c r="F7">
+        <v>1.03667673089711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047979502493388</v>
+        <v>1.051211719226782</v>
       </c>
       <c r="J7">
-        <v>1.038557243176883</v>
+        <v>1.027435874794863</v>
       </c>
       <c r="K7">
-        <v>1.040891700048538</v>
+        <v>1.040312462554495</v>
       </c>
       <c r="L7">
-        <v>1.032702469559842</v>
+        <v>1.022938913596225</v>
+      </c>
+      <c r="M7">
+        <v>1.046348909410412</v>
       </c>
       <c r="N7">
-        <v>1.040032113586374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01279941349774</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045254427926071</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039593018349789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013310543501356</v>
+        <v>1.002274415232698</v>
       </c>
       <c r="D8">
-        <v>1.026619883340475</v>
+        <v>1.026604795756939</v>
       </c>
       <c r="E8">
-        <v>1.017754036084549</v>
+        <v>1.008199570088265</v>
+      </c>
+      <c r="F8">
+        <v>1.032750466086236</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046094745953434</v>
+        <v>1.049854914852042</v>
       </c>
       <c r="J8">
-        <v>1.034539556810521</v>
+        <v>1.023816846631111</v>
       </c>
       <c r="K8">
-        <v>1.03745095131573</v>
+        <v>1.037436055082972</v>
       </c>
       <c r="L8">
-        <v>1.028698770240839</v>
+        <v>1.019269606788389</v>
+      </c>
+      <c r="M8">
+        <v>1.043504358701459</v>
       </c>
       <c r="N8">
-        <v>1.036008721644538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011545510232307</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043003168018429</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037563738467878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001581559823003</v>
+        <v>0.9912395119390701</v>
       </c>
       <c r="D9">
-        <v>1.018248234761477</v>
+        <v>1.01928821124106</v>
       </c>
       <c r="E9">
-        <v>1.008325818761841</v>
+        <v>0.9993807646901262</v>
+      </c>
+      <c r="F9">
+        <v>1.025559922820911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04253631683075</v>
+        <v>1.047232393176674</v>
       </c>
       <c r="J9">
-        <v>1.027078592485115</v>
+        <v>1.017105464136734</v>
       </c>
       <c r="K9">
-        <v>1.031052025864586</v>
+        <v>1.032075914216691</v>
       </c>
       <c r="L9">
-        <v>1.021285244332668</v>
+        <v>1.012483896550903</v>
+      </c>
+      <c r="M9">
+        <v>1.038251486080113</v>
       </c>
       <c r="N9">
-        <v>1.028537161894005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009213282975202</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038845873965008</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033770548090605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.993341347479308</v>
+        <v>0.9835942976624724</v>
       </c>
       <c r="D10">
-        <v>1.012388723243956</v>
+        <v>1.014268021390334</v>
       </c>
       <c r="E10">
-        <v>1.001738465799013</v>
+        <v>0.9933211066554657</v>
+      </c>
+      <c r="F10">
+        <v>1.020731208389199</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039990955338187</v>
+        <v>1.045367629324436</v>
       </c>
       <c r="J10">
-        <v>1.021821664562822</v>
+        <v>1.012474287145966</v>
       </c>
       <c r="K10">
-        <v>1.026537841060674</v>
+        <v>1.028384353897527</v>
       </c>
       <c r="L10">
-        <v>1.016076402491477</v>
+        <v>1.007812006836081</v>
+      </c>
+      <c r="M10">
+        <v>1.034735978122145</v>
       </c>
       <c r="N10">
-        <v>1.023272768531084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007619267448751</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036115159604725</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031177245034931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9896624978581764</v>
+        <v>0.9807619282747729</v>
       </c>
       <c r="D11">
-        <v>1.009778971691544</v>
+        <v>1.012629868376627</v>
       </c>
       <c r="E11">
-        <v>0.9988070418904784</v>
+        <v>0.9911851613375152</v>
+      </c>
+      <c r="F11">
+        <v>1.019775950186302</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038844416742521</v>
+        <v>1.044820558052771</v>
       </c>
       <c r="J11">
-        <v>1.019471743460828</v>
+        <v>1.010957527051094</v>
       </c>
       <c r="K11">
-        <v>1.024518797543465</v>
+        <v>1.02731747060445</v>
       </c>
       <c r="L11">
-        <v>1.013751490774948</v>
+        <v>1.006275249429467</v>
+      </c>
+      <c r="M11">
+        <v>1.03433431512782</v>
       </c>
       <c r="N11">
-        <v>1.020919510271586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00722561347017</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036234628566779</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030455940788602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9882783505314251</v>
+        <v>0.9798673602539908</v>
       </c>
       <c r="D12">
-        <v>1.008798094500872</v>
+        <v>1.012189747281332</v>
       </c>
       <c r="E12">
-        <v>0.9977056153608408</v>
+        <v>0.9905528686019023</v>
+      </c>
+      <c r="F12">
+        <v>1.019813944421695</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038411565572565</v>
+        <v>1.044700798702211</v>
       </c>
       <c r="J12">
-        <v>1.018587211774179</v>
+        <v>1.010548903714676</v>
       </c>
       <c r="K12">
-        <v>1.023758655987573</v>
+        <v>1.027087078785835</v>
       </c>
       <c r="L12">
-        <v>1.012876904566187</v>
+        <v>1.0058633267712</v>
+      </c>
+      <c r="M12">
+        <v>1.034571137221061</v>
       </c>
       <c r="N12">
-        <v>1.020033722448485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007183857945363</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036749030053382</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030293044442187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9885760711054976</v>
+        <v>0.980429536261977</v>
       </c>
       <c r="D13">
-        <v>1.009009026491248</v>
+        <v>1.012667245460078</v>
       </c>
       <c r="E13">
-        <v>0.9979424553081372</v>
+        <v>0.9910556365265125</v>
+      </c>
+      <c r="F13">
+        <v>1.020650751813651</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038504734490029</v>
+        <v>1.044920205539198</v>
       </c>
       <c r="J13">
-        <v>1.018777484950553</v>
+        <v>1.010990138476673</v>
       </c>
       <c r="K13">
-        <v>1.023922178130484</v>
+        <v>1.027512486399198</v>
       </c>
       <c r="L13">
-        <v>1.013065014268871</v>
+        <v>1.006311608835895</v>
+      </c>
+      <c r="M13">
+        <v>1.035349986302781</v>
       </c>
       <c r="N13">
-        <v>1.020224265834593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007422412048391</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03764196389117</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030591317232249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9895484501942456</v>
+        <v>0.9814792437167394</v>
       </c>
       <c r="D14">
-        <v>1.009698130289882</v>
+        <v>1.013413822089768</v>
       </c>
       <c r="E14">
-        <v>0.9987162581171304</v>
+        <v>0.9919182559702636</v>
+      </c>
+      <c r="F14">
+        <v>1.021593651014675</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038808781296987</v>
+        <v>1.045225417857018</v>
       </c>
       <c r="J14">
-        <v>1.019398869439279</v>
+        <v>1.011680122130539</v>
       </c>
       <c r="K14">
-        <v>1.024456174725873</v>
+        <v>1.028103773771988</v>
       </c>
       <c r="L14">
-        <v>1.01367942530708</v>
+        <v>1.007011379966256</v>
+      </c>
+      <c r="M14">
+        <v>1.036135967777671</v>
       </c>
       <c r="N14">
-        <v>1.020846532760567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007714798501486</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038436785098495</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031010814553911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9901451933745714</v>
+        <v>0.9820614606012111</v>
       </c>
       <c r="D15">
-        <v>1.010121167399208</v>
+        <v>1.013808141113648</v>
       </c>
       <c r="E15">
-        <v>0.9991913371068764</v>
+        <v>0.9923849581716617</v>
+      </c>
+      <c r="F15">
+        <v>1.022019760485865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038995180608278</v>
+        <v>1.045380074106234</v>
       </c>
       <c r="J15">
-        <v>1.019780160193241</v>
+        <v>1.012044289697394</v>
       </c>
       <c r="K15">
-        <v>1.024783823003389</v>
+        <v>1.028403763025133</v>
       </c>
       <c r="L15">
-        <v>1.014056507237508</v>
+        <v>1.007379190986346</v>
+      </c>
+      <c r="M15">
+        <v>1.036468339976121</v>
       </c>
       <c r="N15">
-        <v>1.021228364991135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007852288402967</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038737061593416</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031228822875572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9935830817120374</v>
+        <v>0.9852032587349191</v>
       </c>
       <c r="D16">
-        <v>1.01256034521075</v>
+        <v>1.015858756328056</v>
       </c>
       <c r="E16">
-        <v>1.001931291578403</v>
+        <v>0.9948561901479982</v>
+      </c>
+      <c r="F16">
+        <v>1.023951651938461</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040066086526457</v>
+        <v>1.046153486667747</v>
       </c>
       <c r="J16">
-        <v>1.021976019199448</v>
+        <v>1.013937789397785</v>
       </c>
       <c r="K16">
-        <v>1.026670439624983</v>
+        <v>1.029911605606861</v>
       </c>
       <c r="L16">
-        <v>1.016229187795994</v>
+        <v>1.009281990037578</v>
+      </c>
+      <c r="M16">
+        <v>1.037866062600942</v>
       </c>
       <c r="N16">
-        <v>1.023427342368999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008487049796098</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039803072915144</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032298109969138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9957092265376876</v>
+        <v>0.9870662306867378</v>
       </c>
       <c r="D17">
-        <v>1.014070544927204</v>
+        <v>1.017043063664371</v>
       </c>
       <c r="E17">
-        <v>1.003628357344783</v>
+        <v>0.996304707510736</v>
+      </c>
+      <c r="F17">
+        <v>1.02493530330314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040725745470043</v>
+        <v>1.046584232746019</v>
       </c>
       <c r="J17">
-        <v>1.023333297315669</v>
+        <v>1.015030671061765</v>
       </c>
       <c r="K17">
-        <v>1.027836283743699</v>
+        <v>1.030758722501762</v>
       </c>
       <c r="L17">
-        <v>1.017573066002495</v>
+        <v>1.010377840307142</v>
+      </c>
+      <c r="M17">
+        <v>1.038519809480416</v>
       </c>
       <c r="N17">
-        <v>1.024786547975827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00882174390331</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040190694320783</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032899654186144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9969387544902706</v>
+        <v>0.9879812951475098</v>
       </c>
       <c r="D18">
-        <v>1.014944462243571</v>
+        <v>1.017556868561076</v>
       </c>
       <c r="E18">
-        <v>1.004610648389559</v>
+        <v>0.9969822435206991</v>
+      </c>
+      <c r="F18">
+        <v>1.02512475811359</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041106253339027</v>
+        <v>1.046744863215029</v>
       </c>
       <c r="J18">
-        <v>1.024117912935938</v>
+        <v>1.015506172262165</v>
       </c>
       <c r="K18">
-        <v>1.028510126243446</v>
+        <v>1.031079276279629</v>
       </c>
       <c r="L18">
-        <v>1.018350267817629</v>
+        <v>1.010853271483854</v>
+      </c>
+      <c r="M18">
+        <v>1.03852345437135</v>
       </c>
       <c r="N18">
-        <v>1.025572277840274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008913389784119</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039955715027198</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033114609301395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9973562205621476</v>
+        <v>0.9880267033918249</v>
       </c>
       <c r="D19">
-        <v>1.015241283000784</v>
+        <v>1.017452920876771</v>
       </c>
       <c r="E19">
-        <v>1.004944318821107</v>
+        <v>0.9969535855748065</v>
+      </c>
+      <c r="F19">
+        <v>1.024575854985488</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041235283086639</v>
+        <v>1.046658127401479</v>
       </c>
       <c r="J19">
-        <v>1.024384266364057</v>
+        <v>1.015412483061491</v>
       </c>
       <c r="K19">
-        <v>1.028738856587595</v>
+        <v>1.030914078729196</v>
       </c>
       <c r="L19">
-        <v>1.018614160766008</v>
+        <v>1.010760285089513</v>
+      </c>
+      <c r="M19">
+        <v>1.037921101475858</v>
       </c>
       <c r="N19">
-        <v>1.025839009520812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008790016373948</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039153599792325</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033004231572019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9954822164997218</v>
+        <v>0.9856187398633075</v>
       </c>
       <c r="D20">
-        <v>1.013909238542091</v>
+        <v>1.015610318798571</v>
       </c>
       <c r="E20">
-        <v>1.003447066956288</v>
+        <v>0.9949302948836501</v>
+      </c>
+      <c r="F20">
+        <v>1.022014968325575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040655413094916</v>
+        <v>1.04587732052263</v>
       </c>
       <c r="J20">
-        <v>1.023188408860971</v>
+        <v>1.013715516820412</v>
       </c>
       <c r="K20">
-        <v>1.027711841922947</v>
+        <v>1.029384123104641</v>
       </c>
       <c r="L20">
-        <v>1.017429573451023</v>
+        <v>1.009062878590161</v>
+      </c>
+      <c r="M20">
+        <v>1.035681450216808</v>
       </c>
       <c r="N20">
-        <v>1.024641453762905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008056616171949</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036852824198118</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031926431534873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892626048106724</v>
+        <v>0.9797418225093734</v>
       </c>
       <c r="D21">
-        <v>1.00949552888146</v>
+        <v>1.011714117896109</v>
       </c>
       <c r="E21">
-        <v>0.998488745122466</v>
+        <v>0.9902666097356386</v>
+      </c>
+      <c r="F21">
+        <v>1.018160019062855</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038719442247017</v>
+        <v>1.044387482654788</v>
       </c>
       <c r="J21">
-        <v>1.019216214322993</v>
+        <v>1.010111645188807</v>
       </c>
       <c r="K21">
-        <v>1.024299211299483</v>
+        <v>1.026476910026622</v>
       </c>
       <c r="L21">
-        <v>1.013498805366222</v>
+        <v>1.005434760691881</v>
+      </c>
+      <c r="M21">
+        <v>1.032805322863309</v>
       </c>
       <c r="N21">
-        <v>1.020663618253065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006791505349174</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034535577978334</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029874162355319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.985249357217418</v>
+        <v>0.9759781560382863</v>
       </c>
       <c r="D22">
-        <v>1.006653592087472</v>
+        <v>1.00923337213851</v>
       </c>
       <c r="E22">
-        <v>0.995298173609677</v>
+        <v>0.9872920015258986</v>
+      </c>
+      <c r="F22">
+        <v>1.015754597877372</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037461691056107</v>
+        <v>1.043426181326817</v>
       </c>
       <c r="J22">
-        <v>1.01665090637535</v>
+        <v>1.007810136987041</v>
       </c>
       <c r="K22">
-        <v>1.022094382399658</v>
+        <v>1.024624106760579</v>
       </c>
       <c r="L22">
-        <v>1.010963353600201</v>
+        <v>1.003119481025347</v>
+      </c>
+      <c r="M22">
+        <v>1.03102028320189</v>
       </c>
       <c r="N22">
-        <v>1.018094667273892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00598684927253</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033122825533901</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028550541727957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9873869536928446</v>
+        <v>0.9779681969240815</v>
       </c>
       <c r="D23">
-        <v>1.008166706864456</v>
+        <v>1.010539807414607</v>
       </c>
       <c r="E23">
-        <v>0.9969967264410954</v>
+        <v>0.9888612721633177</v>
+      </c>
+      <c r="F23">
+        <v>1.01702411585167</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038132399686674</v>
+        <v>1.043932250939266</v>
       </c>
       <c r="J23">
-        <v>1.018017468193904</v>
+        <v>1.00902235425571</v>
       </c>
       <c r="K23">
-        <v>1.023268992754005</v>
+        <v>1.025597277023477</v>
       </c>
       <c r="L23">
-        <v>1.012313717417703</v>
+        <v>1.004338654300813</v>
+      </c>
+      <c r="M23">
+        <v>1.031960519025333</v>
       </c>
       <c r="N23">
-        <v>1.019463169766975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006407127736934</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033866966472555</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029228917754931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9955848252975764</v>
+        <v>0.9856376191049979</v>
       </c>
       <c r="D24">
-        <v>1.0139821474085</v>
+        <v>1.015593892775687</v>
       </c>
       <c r="E24">
-        <v>1.003529007649616</v>
+        <v>0.9949320101549414</v>
+      </c>
+      <c r="F24">
+        <v>1.021943566818686</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04068720640997</v>
+        <v>1.045860775423669</v>
       </c>
       <c r="J24">
-        <v>1.023253899495723</v>
+        <v>1.013699970846251</v>
       </c>
       <c r="K24">
-        <v>1.027768090869574</v>
+        <v>1.029352586583411</v>
       </c>
       <c r="L24">
-        <v>1.017494432096495</v>
+        <v>1.009048713772908</v>
+      </c>
+      <c r="M24">
+        <v>1.035595984100691</v>
       </c>
       <c r="N24">
-        <v>1.024707037401869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008034493396849</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036744214266599</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031876582555735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004684504475683</v>
+        <v>0.9941768288979207</v>
       </c>
       <c r="D25">
-        <v>1.020459517288606</v>
+        <v>1.0212410108156</v>
       </c>
       <c r="E25">
-        <v>1.010814085004573</v>
+        <v>1.001726009668429</v>
+      </c>
+      <c r="F25">
+        <v>1.027467820283593</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043485708537406</v>
+        <v>1.047949281912371</v>
       </c>
       <c r="J25">
-        <v>1.029055238319092</v>
+        <v>1.018901767843464</v>
       </c>
       <c r="K25">
-        <v>1.032748315851729</v>
+        <v>1.033518299033056</v>
       </c>
       <c r="L25">
-        <v>1.023246814052462</v>
+        <v>1.014297590519367</v>
+      </c>
+      <c r="M25">
+        <v>1.039654189059994</v>
       </c>
       <c r="N25">
-        <v>1.03051661479179</v>
+        <v>1.009843171590916</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039956021021477</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034819100432704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000686273046259</v>
+        <v>1.000636935637834</v>
       </c>
       <c r="D2">
-        <v>1.02554399267156</v>
+        <v>1.024998528696394</v>
       </c>
       <c r="E2">
-        <v>1.006923753216378</v>
+        <v>1.006917202403685</v>
       </c>
       <c r="F2">
-        <v>1.031708829245882</v>
+        <v>1.031314956270493</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049481075405777</v>
+        <v>1.049204136792958</v>
       </c>
       <c r="J2">
-        <v>1.022846477161106</v>
+        <v>1.022798612744451</v>
       </c>
       <c r="K2">
-        <v>1.036658569788023</v>
+        <v>1.036120242699497</v>
       </c>
       <c r="L2">
-        <v>1.018287464609635</v>
+        <v>1.018281003486994</v>
       </c>
       <c r="M2">
-        <v>1.042743401474323</v>
+        <v>1.04235460425209</v>
       </c>
       <c r="N2">
-        <v>1.011204845030636</v>
+        <v>1.013049538431343</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042400923226343</v>
+        <v>1.042093217036489</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036991043813455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0366191908404</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02161878245722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005294805064333</v>
+        <v>1.004969664186679</v>
       </c>
       <c r="D3">
-        <v>1.028604112596623</v>
+        <v>1.027776774032761</v>
       </c>
       <c r="E3">
-        <v>1.010621077020029</v>
+        <v>1.010369967547451</v>
       </c>
       <c r="F3">
-        <v>1.034731247269237</v>
+        <v>1.034134424479522</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050541903016477</v>
+        <v>1.050121409522325</v>
       </c>
       <c r="J3">
-        <v>1.025642161738743</v>
+        <v>1.025325761905102</v>
       </c>
       <c r="K3">
-        <v>1.038883626402777</v>
+        <v>1.03806616587005</v>
       </c>
       <c r="L3">
-        <v>1.02111983921874</v>
+        <v>1.020871860095105</v>
       </c>
       <c r="M3">
-        <v>1.044938214686131</v>
+        <v>1.04434841160012</v>
       </c>
       <c r="N3">
-        <v>1.012174440101305</v>
+        <v>1.013740912753596</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044137964086086</v>
+        <v>1.043671176679825</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038561691295526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03799218474282</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022041059195812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008216339430339</v>
+        <v>1.007718742956036</v>
       </c>
       <c r="D4">
-        <v>1.030546530082764</v>
+        <v>1.029541923445255</v>
       </c>
       <c r="E4">
-        <v>1.012971019035834</v>
+        <v>1.012566826145112</v>
       </c>
       <c r="F4">
-        <v>1.036655139346421</v>
+        <v>1.035930888824924</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051200424425289</v>
+        <v>1.050689481029964</v>
       </c>
       <c r="J4">
-        <v>1.027412180243798</v>
+        <v>1.026927042374589</v>
       </c>
       <c r="K4">
-        <v>1.040289750555169</v>
+        <v>1.039296412832581</v>
       </c>
       <c r="L4">
-        <v>1.022915375907545</v>
+        <v>1.022515910241864</v>
       </c>
       <c r="M4">
-        <v>1.046330416102542</v>
+        <v>1.045614169664244</v>
       </c>
       <c r="N4">
-        <v>1.01278808668172</v>
+        <v>1.014178994041471</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045239791808397</v>
+        <v>1.044672934251738</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039556842379521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038863054487822</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022305549484076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0094348917865</v>
+        <v>1.008865689798442</v>
       </c>
       <c r="D5">
-        <v>1.031358953280397</v>
+        <v>1.030280676834971</v>
       </c>
       <c r="E5">
-        <v>1.013953253205021</v>
+        <v>1.013485409689553</v>
       </c>
       <c r="F5">
-        <v>1.037459866111663</v>
+        <v>1.03668270442388</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051473041763346</v>
+        <v>1.050924468861596</v>
       </c>
       <c r="J5">
-        <v>1.028151450654294</v>
+        <v>1.027596068132949</v>
       </c>
       <c r="K5">
-        <v>1.040877587457749</v>
+        <v>1.039811083323775</v>
       </c>
       <c r="L5">
-        <v>1.023665689496269</v>
+        <v>1.023203168413809</v>
       </c>
       <c r="M5">
-        <v>1.046912457231896</v>
+        <v>1.046143655447982</v>
       </c>
       <c r="N5">
-        <v>1.013045251893923</v>
+        <v>1.014362663668769</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045700435189843</v>
+        <v>1.045091984220968</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039979664598893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039234851601159</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022416222638515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009643928740097</v>
+        <v>1.009062211492739</v>
       </c>
       <c r="D6">
-        <v>1.031500438558469</v>
+        <v>1.03040947169712</v>
       </c>
       <c r="E6">
-        <v>1.014122656834991</v>
+        <v>1.013643616949877</v>
       </c>
       <c r="F6">
-        <v>1.037598579577381</v>
+        <v>1.036812305120339</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051521274294881</v>
+        <v>1.050966217633272</v>
       </c>
       <c r="J6">
-        <v>1.02828017019523</v>
+        <v>1.027712502546446</v>
       </c>
       <c r="K6">
-        <v>1.040981356074438</v>
+        <v>1.03990224532268</v>
       </c>
       <c r="L6">
-        <v>1.023796164230708</v>
+        <v>1.023322548579518</v>
       </c>
       <c r="M6">
-        <v>1.047013787905698</v>
+        <v>1.046235932598502</v>
       </c>
       <c r="N6">
-        <v>1.013091154251324</v>
+        <v>1.014395403982708</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045780631046594</v>
+        <v>1.045165014933571</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040061781867867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039308923513052</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022436552593065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008246810759995</v>
+        <v>1.007757733078591</v>
       </c>
       <c r="D7">
-        <v>1.03057241452631</v>
+        <v>1.029572919590823</v>
       </c>
       <c r="E7">
-        <v>1.012997819663022</v>
+        <v>1.012601452345721</v>
       </c>
       <c r="F7">
-        <v>1.03667673089711</v>
+        <v>1.035956168233978</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051211719226782</v>
+        <v>1.050703373402933</v>
       </c>
       <c r="J7">
-        <v>1.027435874794863</v>
+        <v>1.026959036817512</v>
       </c>
       <c r="K7">
-        <v>1.040312462554495</v>
+        <v>1.039324174694416</v>
       </c>
       <c r="L7">
-        <v>1.022938913596225</v>
+        <v>1.022547180079586</v>
       </c>
       <c r="M7">
-        <v>1.046348909410412</v>
+        <v>1.045636306980591</v>
       </c>
       <c r="N7">
-        <v>1.01279941349774</v>
+        <v>1.01421657805629</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045254427926071</v>
+        <v>1.044690454352491</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039593018349789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038904799458266</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022314527709493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002274415232698</v>
+        <v>1.002162573804787</v>
       </c>
       <c r="D8">
-        <v>1.026604795756939</v>
+        <v>1.025983752333797</v>
       </c>
       <c r="E8">
-        <v>1.008199570088265</v>
+        <v>1.00813894204985</v>
       </c>
       <c r="F8">
-        <v>1.032750466086236</v>
+        <v>1.032302169303402</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049854914852042</v>
+        <v>1.049539491402678</v>
       </c>
       <c r="J8">
-        <v>1.023816846631111</v>
+        <v>1.023708229838921</v>
       </c>
       <c r="K8">
-        <v>1.037436055082972</v>
+        <v>1.036822894243989</v>
       </c>
       <c r="L8">
-        <v>1.019269606788389</v>
+        <v>1.019209783375506</v>
       </c>
       <c r="M8">
-        <v>1.043504358701459</v>
+        <v>1.04306166661544</v>
       </c>
       <c r="N8">
-        <v>1.011545510232307</v>
+        <v>1.013382558844199</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043003168018429</v>
+        <v>1.042652808040765</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037563738467878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037141234002408</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021777342888869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9912395119390701</v>
+        <v>0.991809595719418</v>
       </c>
       <c r="D9">
-        <v>1.01928821124106</v>
+        <v>1.019354925644924</v>
       </c>
       <c r="E9">
-        <v>0.9993807646901262</v>
+        <v>0.999924100936558</v>
       </c>
       <c r="F9">
-        <v>1.025559922820911</v>
+        <v>1.025608195092398</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047232393176674</v>
+        <v>1.047266195820234</v>
       </c>
       <c r="J9">
-        <v>1.017105464136734</v>
+        <v>1.01765493083477</v>
       </c>
       <c r="K9">
-        <v>1.032075914216691</v>
+        <v>1.032141597999367</v>
       </c>
       <c r="L9">
-        <v>1.012483896550903</v>
+        <v>1.013018409670084</v>
       </c>
       <c r="M9">
-        <v>1.038251486080113</v>
+        <v>1.038299024193561</v>
       </c>
       <c r="N9">
-        <v>1.009213282975202</v>
+        <v>1.01173454253024</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038845873965008</v>
+        <v>1.038883497280077</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033770548090605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033827775193959</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020745764241318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9835942976624724</v>
+        <v>0.9846935932405109</v>
       </c>
       <c r="D10">
-        <v>1.014268021390334</v>
+        <v>1.0148461207101</v>
       </c>
       <c r="E10">
-        <v>0.9933211066554657</v>
+        <v>0.9943324120532459</v>
       </c>
       <c r="F10">
-        <v>1.020731208389199</v>
+        <v>1.021150125755611</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045367629324436</v>
+        <v>1.045660083079329</v>
       </c>
       <c r="J10">
-        <v>1.012474287145966</v>
+        <v>1.013527943624694</v>
       </c>
       <c r="K10">
-        <v>1.028384353897527</v>
+        <v>1.02895239959146</v>
       </c>
       <c r="L10">
-        <v>1.007812006836081</v>
+        <v>1.008804756141747</v>
       </c>
       <c r="M10">
-        <v>1.034735978122145</v>
+        <v>1.035147727410769</v>
       </c>
       <c r="N10">
-        <v>1.007619267448751</v>
+        <v>1.010736515564402</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036115159604725</v>
+        <v>1.036441013059351</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031177245034931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031591366740677</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020043709906719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9807619282747729</v>
+        <v>0.9820644975584208</v>
       </c>
       <c r="D11">
-        <v>1.012629868376627</v>
+        <v>1.013394051112122</v>
       </c>
       <c r="E11">
-        <v>0.9911851613375152</v>
+        <v>0.9923658940803279</v>
       </c>
       <c r="F11">
-        <v>1.019775950186302</v>
+        <v>1.02032922175128</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044820558052771</v>
+        <v>1.045206901282272</v>
       </c>
       <c r="J11">
-        <v>1.010957527051094</v>
+        <v>1.012202929314471</v>
       </c>
       <c r="K11">
-        <v>1.02731747060445</v>
+        <v>1.028067719786975</v>
       </c>
       <c r="L11">
-        <v>1.006275249429467</v>
+        <v>1.007433228905506</v>
       </c>
       <c r="M11">
-        <v>1.03433431512782</v>
+        <v>1.034877678806604</v>
       </c>
       <c r="N11">
-        <v>1.00722561347017</v>
+        <v>1.010692214940786</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036234628566779</v>
+        <v>1.03666442278232</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030455940788602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031002096641393</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019919106535459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9798673602539908</v>
+        <v>0.9812169743656054</v>
       </c>
       <c r="D12">
-        <v>1.012189747281332</v>
+        <v>1.012998626868475</v>
       </c>
       <c r="E12">
-        <v>0.9905528686019023</v>
+        <v>0.9917652972571056</v>
       </c>
       <c r="F12">
-        <v>1.019813944421695</v>
+        <v>1.020399075066987</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044700798702211</v>
+        <v>1.04510964525268</v>
       </c>
       <c r="J12">
-        <v>1.010548903714676</v>
+        <v>1.011838101356118</v>
       </c>
       <c r="K12">
-        <v>1.027087078785835</v>
+        <v>1.027880960105999</v>
       </c>
       <c r="L12">
-        <v>1.0058633267712</v>
+        <v>1.007051980138441</v>
       </c>
       <c r="M12">
-        <v>1.034571137221061</v>
+        <v>1.035145625283892</v>
       </c>
       <c r="N12">
-        <v>1.007183857945363</v>
+        <v>1.010757314360881</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036749030053382</v>
+        <v>1.037203288877003</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030293044442187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030870052962904</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01992369913424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.980429536261977</v>
+        <v>0.9816902337520013</v>
       </c>
       <c r="D13">
-        <v>1.012667245460078</v>
+        <v>1.013402654064483</v>
       </c>
       <c r="E13">
-        <v>0.9910556365265125</v>
+        <v>0.9921791570085499</v>
       </c>
       <c r="F13">
-        <v>1.020650751813651</v>
+        <v>1.021182246821483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044920205539198</v>
+        <v>1.045291940441508</v>
       </c>
       <c r="J13">
-        <v>1.010990138476673</v>
+        <v>1.012194692386736</v>
       </c>
       <c r="K13">
-        <v>1.027512486399198</v>
+        <v>1.02823432011008</v>
       </c>
       <c r="L13">
-        <v>1.006311608835895</v>
+        <v>1.007413198355806</v>
       </c>
       <c r="M13">
-        <v>1.035349986302781</v>
+        <v>1.03587186644477</v>
       </c>
       <c r="N13">
-        <v>1.007422412048391</v>
+        <v>1.010881331844887</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03764196389117</v>
+        <v>1.038054520645322</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030591317232249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031117138177219</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020035386017949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9814792437167394</v>
+        <v>0.9826188125391856</v>
       </c>
       <c r="D14">
-        <v>1.013413822089768</v>
+        <v>1.014046545641061</v>
       </c>
       <c r="E14">
-        <v>0.9919182559702636</v>
+        <v>0.9929279669368748</v>
       </c>
       <c r="F14">
-        <v>1.021593651014675</v>
+        <v>1.022050633065054</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045225417857018</v>
+        <v>1.045545304667961</v>
       </c>
       <c r="J14">
-        <v>1.011680122130539</v>
+        <v>1.012769698510156</v>
       </c>
       <c r="K14">
-        <v>1.028103773771988</v>
+        <v>1.028724966908846</v>
       </c>
       <c r="L14">
-        <v>1.007011379966256</v>
+        <v>1.008001641018974</v>
       </c>
       <c r="M14">
-        <v>1.036135967777671</v>
+        <v>1.036584792405078</v>
       </c>
       <c r="N14">
-        <v>1.007714798501486</v>
+        <v>1.01099622388019</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038436785098495</v>
+        <v>1.038791542056692</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031010814553911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03146560876357</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020161950205748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9820614606012111</v>
+        <v>0.9831414133849196</v>
       </c>
       <c r="D15">
-        <v>1.013808141113648</v>
+        <v>1.014389472549521</v>
       </c>
       <c r="E15">
-        <v>0.9923849581716617</v>
+        <v>0.9933404257131802</v>
       </c>
       <c r="F15">
-        <v>1.022019760485865</v>
+        <v>1.022439539269246</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045380074106234</v>
+        <v>1.045674010200437</v>
       </c>
       <c r="J15">
-        <v>1.012044289697394</v>
+        <v>1.013077296577396</v>
       </c>
       <c r="K15">
-        <v>1.028403763025133</v>
+        <v>1.028974582966959</v>
       </c>
       <c r="L15">
-        <v>1.007379190986346</v>
+        <v>1.008316401311313</v>
       </c>
       <c r="M15">
-        <v>1.036468339976121</v>
+        <v>1.036880684247355</v>
       </c>
       <c r="N15">
-        <v>1.007852288402967</v>
+        <v>1.011043971970051</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038737061593416</v>
+        <v>1.03906297542346</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031228822875572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031648566167688</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020220730674137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9852032587349191</v>
+        <v>0.9860009027475187</v>
       </c>
       <c r="D16">
-        <v>1.015858756328056</v>
+        <v>1.016188797653625</v>
       </c>
       <c r="E16">
-        <v>0.9948561901479982</v>
+        <v>0.9955630068999078</v>
       </c>
       <c r="F16">
-        <v>1.023951651938461</v>
+        <v>1.024189849824538</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046153486667747</v>
+        <v>1.046320467524515</v>
       </c>
       <c r="J16">
-        <v>1.013937789397785</v>
+        <v>1.014702563030863</v>
       </c>
       <c r="K16">
-        <v>1.029911605606861</v>
+        <v>1.030235945398459</v>
       </c>
       <c r="L16">
-        <v>1.009281990037578</v>
+        <v>1.009975922589475</v>
       </c>
       <c r="M16">
-        <v>1.037866062600942</v>
+        <v>1.038100228600046</v>
       </c>
       <c r="N16">
-        <v>1.008487049796098</v>
+        <v>1.011262209382348</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039803072915144</v>
+        <v>1.039988161299424</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032298109969138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032543871560627</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020492952008258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9870662306867378</v>
+        <v>0.987722537500297</v>
       </c>
       <c r="D17">
-        <v>1.017043063664371</v>
+        <v>1.017241346810179</v>
       </c>
       <c r="E17">
-        <v>0.996304707510736</v>
+        <v>0.9968904154555475</v>
       </c>
       <c r="F17">
-        <v>1.02493530330314</v>
+        <v>1.0250784014818</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046584232746019</v>
+        <v>1.046684590882187</v>
       </c>
       <c r="J17">
-        <v>1.015030671061765</v>
+        <v>1.015660835783244</v>
       </c>
       <c r="K17">
-        <v>1.030758722501762</v>
+        <v>1.030953678464791</v>
       </c>
       <c r="L17">
-        <v>1.010377840307142</v>
+        <v>1.010953187517792</v>
       </c>
       <c r="M17">
-        <v>1.038519809480416</v>
+        <v>1.038660553640491</v>
       </c>
       <c r="N17">
-        <v>1.00882174390331</v>
+        <v>1.011400255932093</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040190694320783</v>
+        <v>1.040301951761387</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032899654186144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033054178151295</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02063667128965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9879812951475098</v>
+        <v>0.9885939678804453</v>
       </c>
       <c r="D18">
-        <v>1.017556868561076</v>
+        <v>1.017708590829898</v>
       </c>
       <c r="E18">
-        <v>0.9969822435206991</v>
+        <v>0.9975361158599537</v>
       </c>
       <c r="F18">
-        <v>1.02512475811359</v>
+        <v>1.025234303815802</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046744863215029</v>
+        <v>1.046821672190836</v>
       </c>
       <c r="J18">
-        <v>1.015506172262165</v>
+        <v>1.016094916265073</v>
       </c>
       <c r="K18">
-        <v>1.031079276279629</v>
+        <v>1.031228495107153</v>
       </c>
       <c r="L18">
-        <v>1.010853271483854</v>
+        <v>1.011397515118485</v>
       </c>
       <c r="M18">
-        <v>1.03852345437135</v>
+        <v>1.038631226558963</v>
       </c>
       <c r="N18">
-        <v>1.008913389784119</v>
+        <v>1.01143154774859</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039955715027198</v>
+        <v>1.040040926098437</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033114609301395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033235661204755</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020668394164609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9880267033918249</v>
+        <v>0.9886792823376565</v>
       </c>
       <c r="D19">
-        <v>1.017452920876771</v>
+        <v>1.017633955267434</v>
       </c>
       <c r="E19">
-        <v>0.9969535855748065</v>
+        <v>0.9975515779964758</v>
       </c>
       <c r="F19">
-        <v>1.024575854985488</v>
+        <v>1.024706690472969</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046658127401479</v>
+        <v>1.046749781532808</v>
       </c>
       <c r="J19">
-        <v>1.015412483061491</v>
+        <v>1.016039728968678</v>
       </c>
       <c r="K19">
-        <v>1.030914078729196</v>
+        <v>1.031092141309601</v>
       </c>
       <c r="L19">
-        <v>1.010760285089513</v>
+        <v>1.011347937494937</v>
       </c>
       <c r="M19">
-        <v>1.037921101475858</v>
+        <v>1.03804982722158</v>
       </c>
       <c r="N19">
-        <v>1.008790016373948</v>
+        <v>1.011348874288583</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039153599792325</v>
+        <v>1.039255411309431</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033004231572019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033146300615632</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020596493391651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9856187398633075</v>
+        <v>0.9865423312835591</v>
       </c>
       <c r="D20">
-        <v>1.015610318798571</v>
+        <v>1.016030427579506</v>
       </c>
       <c r="E20">
-        <v>0.9949302948836501</v>
+        <v>0.9957838082425539</v>
       </c>
       <c r="F20">
-        <v>1.022014968325575</v>
+        <v>1.02231927716568</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04587732052263</v>
+        <v>1.046089933094672</v>
       </c>
       <c r="J20">
-        <v>1.013715516820412</v>
+        <v>1.014602065007135</v>
       </c>
       <c r="K20">
-        <v>1.029384123104641</v>
+        <v>1.029797138652054</v>
       </c>
       <c r="L20">
-        <v>1.009062878590161</v>
+        <v>1.009901201664049</v>
       </c>
       <c r="M20">
-        <v>1.035681450216808</v>
+        <v>1.035980702859214</v>
       </c>
       <c r="N20">
-        <v>1.008056616171949</v>
+        <v>1.010931892978721</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036852824198118</v>
+        <v>1.037089651976699</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031926431534873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03223501872569</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020233532636004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9797418225093734</v>
+        <v>0.9812461349541695</v>
       </c>
       <c r="D21">
-        <v>1.011714117896109</v>
+        <v>1.012642885442777</v>
       </c>
       <c r="E21">
-        <v>0.9902666097356386</v>
+        <v>0.9916448230553054</v>
       </c>
       <c r="F21">
-        <v>1.018160019062855</v>
+        <v>1.018833745684597</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044387482654788</v>
+        <v>1.044856987841797</v>
       </c>
       <c r="J21">
-        <v>1.010111645188807</v>
+        <v>1.011549425929751</v>
       </c>
       <c r="K21">
-        <v>1.026476910026622</v>
+        <v>1.027388628968897</v>
       </c>
       <c r="L21">
-        <v>1.005434760691881</v>
+        <v>1.006786234792344</v>
       </c>
       <c r="M21">
-        <v>1.032805322863309</v>
+        <v>1.033466881140759</v>
       </c>
       <c r="N21">
-        <v>1.006791505349174</v>
+        <v>1.010526238833284</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034535577978334</v>
+        <v>1.035059161184549</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029874162355319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030535696619515</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019699648959702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9759781560382863</v>
+        <v>0.9778537075084732</v>
       </c>
       <c r="D22">
-        <v>1.00923337213851</v>
+        <v>1.010486913992407</v>
       </c>
       <c r="E22">
-        <v>0.9872920015258986</v>
+        <v>0.9890056906481566</v>
       </c>
       <c r="F22">
-        <v>1.015754597877372</v>
+        <v>1.016664669728617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043426181326817</v>
+        <v>1.04405941554668</v>
       </c>
       <c r="J22">
-        <v>1.007810136987041</v>
+        <v>1.009597665240015</v>
       </c>
       <c r="K22">
-        <v>1.024624106760579</v>
+        <v>1.025853446891402</v>
       </c>
       <c r="L22">
-        <v>1.003119481025347</v>
+        <v>1.004798139196047</v>
       </c>
       <c r="M22">
-        <v>1.03102028320189</v>
+        <v>1.031913070531527</v>
       </c>
       <c r="N22">
-        <v>1.00598684927253</v>
+        <v>1.010261463194864</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033122825533901</v>
+        <v>1.033829413820242</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028550541727957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029435367939674</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.0193594556552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9779681969240815</v>
+        <v>0.9796296152743418</v>
       </c>
       <c r="D23">
-        <v>1.010539807414607</v>
+        <v>1.011609519144533</v>
       </c>
       <c r="E23">
-        <v>0.9888612721633177</v>
+        <v>0.9903808195230946</v>
       </c>
       <c r="F23">
-        <v>1.01702411585167</v>
+        <v>1.017800384156846</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043932250939266</v>
+        <v>1.044472824626716</v>
       </c>
       <c r="J23">
-        <v>1.00902235425571</v>
+        <v>1.010608195355202</v>
       </c>
       <c r="K23">
-        <v>1.025597277023477</v>
+        <v>1.02664687690603</v>
       </c>
       <c r="L23">
-        <v>1.004338654300813</v>
+        <v>1.00582798064181</v>
       </c>
       <c r="M23">
-        <v>1.031960519025333</v>
+        <v>1.032722428645883</v>
       </c>
       <c r="N23">
-        <v>1.006407127736934</v>
+        <v>1.010351141072521</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033866966472555</v>
+        <v>1.03446997221126</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029228917754931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029985715513764</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019531691668344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,102 +1803,120 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9856376191049979</v>
+        <v>0.9865676817019304</v>
       </c>
       <c r="D24">
-        <v>1.015593892775687</v>
+        <v>1.016018281367482</v>
       </c>
       <c r="E24">
-        <v>0.9949320101549414</v>
+        <v>0.9957928180096266</v>
       </c>
       <c r="F24">
-        <v>1.021943566818686</v>
+        <v>1.022251017504388</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045860775423669</v>
+        <v>1.046075557418157</v>
       </c>
       <c r="J24">
-        <v>1.013699970846251</v>
+        <v>1.014592785629567</v>
       </c>
       <c r="K24">
-        <v>1.029352586583411</v>
+        <v>1.029769818617248</v>
       </c>
       <c r="L24">
-        <v>1.009048713772908</v>
+        <v>1.009894221515856</v>
       </c>
       <c r="M24">
-        <v>1.035595984100691</v>
+        <v>1.035898332032626</v>
       </c>
       <c r="N24">
-        <v>1.008034493396849</v>
+        <v>1.010914820786174</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036744214266599</v>
+        <v>1.036983503598048</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031876582555735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032185488444471</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02021800646126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9941768288979207</v>
+        <v>0.9945475303059957</v>
       </c>
       <c r="D25">
-        <v>1.0212410108156</v>
+        <v>1.021113616080528</v>
       </c>
       <c r="E25">
-        <v>1.001726009668429</v>
+        <v>1.002091914203022</v>
       </c>
       <c r="F25">
-        <v>1.027467820283593</v>
+        <v>1.027375700174752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047949281912371</v>
+        <v>1.047884694352801</v>
       </c>
       <c r="J25">
-        <v>1.018901767843464</v>
+        <v>1.019259795501846</v>
       </c>
       <c r="K25">
-        <v>1.033518299033056</v>
+        <v>1.033392779124236</v>
       </c>
       <c r="L25">
-        <v>1.014297590519367</v>
+        <v>1.014657842464692</v>
       </c>
       <c r="M25">
-        <v>1.039654189059994</v>
+        <v>1.039563403841437</v>
       </c>
       <c r="N25">
-        <v>1.009843171590916</v>
+        <v>1.012143519171544</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039956021021477</v>
+        <v>1.039884170550095</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034819100432704</v>
+        <v>1.034743924702648</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021025836197718</v>
       </c>
     </row>
   </sheetData>
